--- a/ExcelFormatTemplate.xlsx
+++ b/ExcelFormatTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="326">
   <si>
     <t>SKU</t>
   </si>
@@ -68,735 +68,819 @@
     <t>+ 16%</t>
   </si>
   <si>
+    <t>SAN83964</t>
+  </si>
+  <si>
+    <t>Jarrow Formulas Zinc Balance 100 капсул</t>
+  </si>
+  <si>
+    <t>Jarrow Formulas</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>XS Market</t>
+  </si>
+  <si>
+    <t>SAN83976</t>
+  </si>
+  <si>
+    <t>NOW БАД Selenium 100 mcg 100 таблеток</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Кот маркет</t>
+  </si>
+  <si>
+    <t>102026527_4725004</t>
+  </si>
+  <si>
+    <t>NOW Inulin Prebiotic Pure Powder 227 гр</t>
+  </si>
+  <si>
+    <t>29502760_4725004</t>
+  </si>
+  <si>
+    <t>NOW омега жирные кислоты Omega-3 200 капсул</t>
+  </si>
+  <si>
+    <t>Body Energy</t>
+  </si>
+  <si>
+    <t>100904548_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин Biotin 5000 mcg 120 капсул</t>
+  </si>
+  <si>
+    <t>Магазин здоровья Health and Hair</t>
+  </si>
+  <si>
+    <t>101181101_4725004</t>
+  </si>
+  <si>
+    <t>NOW Spirulina 1000 мг №120</t>
+  </si>
+  <si>
+    <t>Dreamy</t>
+  </si>
+  <si>
+    <t>104327534_4725004</t>
+  </si>
+  <si>
+    <t>Garden of Life витамин Vitamin Code Raw Zinc 60 капсул</t>
+  </si>
+  <si>
+    <t>Garden of Life</t>
+  </si>
+  <si>
+    <t>iHealth</t>
+  </si>
+  <si>
+    <t>SAN84032</t>
+  </si>
+  <si>
+    <t>Life Extension мультивитамины Two-Per-Day 120 таблеток</t>
+  </si>
+  <si>
+    <t>Life Extension</t>
+  </si>
+  <si>
+    <t>Phoenix Nutrition</t>
+  </si>
+  <si>
+    <t>SAN939730</t>
+  </si>
+  <si>
+    <t>Jarrow Formulas Метилфолат 400 мкг 60 капсул</t>
+  </si>
+  <si>
+    <t>SAN84000</t>
+  </si>
+  <si>
+    <t>NOW Spirulina 1000 мг 120 таблеток</t>
+  </si>
+  <si>
+    <t>Экономь</t>
+  </si>
+  <si>
+    <t>SAN0939485</t>
+  </si>
+  <si>
+    <t>БАД NOW Iron Double Strength 90 капсул</t>
+  </si>
+  <si>
+    <t>My_Herb</t>
+  </si>
+  <si>
+    <t>100729763_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Selenium 100 mcg таблетки 100 шт</t>
+  </si>
+  <si>
+    <t>104715331_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition рыбий жир Omega 3 Premium Fish Oil 180 mg EPA/120 mg DHA 100 капсул</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition</t>
+  </si>
+  <si>
+    <t>KZ COMPANY</t>
+  </si>
+  <si>
+    <t>102427689_4725004</t>
+  </si>
+  <si>
+    <t>NOW Vitamin B12 5000 mcg + FOLIC ACID №60 капсул</t>
+  </si>
+  <si>
+    <t>ЦЕНТР СПОРТ ПИТАНИЯ</t>
+  </si>
+  <si>
+    <t>103737484_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 25 мкг 1000 МЕ 360 капсул</t>
+  </si>
+  <si>
+    <t>Iherb Organics</t>
+  </si>
+  <si>
+    <t>SAN0939483</t>
+  </si>
+  <si>
+    <t>Витамины Solgar Chelated Iron 100 таблеток</t>
+  </si>
+  <si>
+    <t>Solgar</t>
+  </si>
+  <si>
+    <t>101611432_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик LactoBif 100 Probiotics 30 капсул</t>
+  </si>
+  <si>
+    <t>SAN84017</t>
+  </si>
+  <si>
+    <t>Nature's Plus мультивитамины Animal Parade Gold вишня 60 таблеток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature's Plus </t>
+  </si>
+  <si>
+    <t>103562539_4725004</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Womens Premium Gummies 75 таблеток</t>
+  </si>
+  <si>
+    <t>104385811_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик Lactobif, Cran-Max 30 капсул</t>
+  </si>
+  <si>
+    <t>101119224_4725004</t>
+  </si>
+  <si>
+    <t>Витамин Д3 2000МЕ 360 капсул</t>
+  </si>
+  <si>
     <t>SAN84012</t>
   </si>
   <si>
     <t>Nature's Plus минерал Source of Life Animal Parade Kid Zinc 90 животных</t>
   </si>
   <si>
-    <t xml:space="preserve">Nature's Plus </t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>SAN1</t>
+  </si>
+  <si>
+    <t>Fairhaven Health Nursing Postnatal 60 капсул</t>
+  </si>
+  <si>
+    <t>Fairhaven Health</t>
+  </si>
+  <si>
+    <t>SAN83951</t>
+  </si>
+  <si>
+    <t>Solgar витамин Vitamin D3 125 mcg 5000 IU 100 капсул</t>
+  </si>
+  <si>
+    <t>Jefferson System</t>
+  </si>
+  <si>
+    <t>103721404_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition БАД Astaxanthin 12 mg 30 капсул</t>
+  </si>
+  <si>
+    <t>organickz</t>
+  </si>
+  <si>
+    <t>104817178_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик LactoBif Probiotics, 100 Billion CFU 30 капсул</t>
+  </si>
+  <si>
+    <t>100907783_4725004</t>
+  </si>
+  <si>
+    <t>NOW Vitamin D-3 1000 IU 360 капсул</t>
+  </si>
+  <si>
+    <t>Healthy wealthy</t>
+  </si>
+  <si>
+    <t>SAN02</t>
+  </si>
+  <si>
+    <t>Nature's Way БАД Chlorofresh Жидкий Хлорофилл 132 мг 473,2 мл</t>
+  </si>
+  <si>
+    <t>Nature's Way</t>
+  </si>
+  <si>
+    <t>SAN0506</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition БАД Астаксантин 12 мг 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN83995</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive! Kid's Chewable Multivitamin Orange &amp; Berry 120 капсул</t>
+  </si>
+  <si>
+    <t>100912861_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Zinc Picolinate 22 мг таблетки 100 шт</t>
+  </si>
+  <si>
+    <t>101193682_4725004</t>
+  </si>
+  <si>
+    <t>Solgar БАД Biotin 10000 mcg 120 капсул</t>
+  </si>
+  <si>
+    <t>103055610_4725004</t>
+  </si>
+  <si>
+    <t>Now Kid-Cal Chewable Calcium 100 капсул</t>
+  </si>
+  <si>
+    <t>107175564_4725004</t>
+  </si>
+  <si>
+    <t>NOW C-500+Calcium 100 таблеток</t>
+  </si>
+  <si>
+    <t>SAN0939547</t>
+  </si>
+  <si>
+    <t>БАД Nutribiotic Sodium Ascorbate 250 капсул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NutriBiotic </t>
+  </si>
+  <si>
+    <t>SAN83922</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Астаксантин 30 капсул</t>
+  </si>
+  <si>
+    <t>IherbStore</t>
+  </si>
+  <si>
+    <t>SAN83931</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик LactoBif Probiotics 60 капсул</t>
+  </si>
+  <si>
+    <t>SAN83962</t>
+  </si>
+  <si>
+    <t>Nature's Plus омега жирные кислоты Source of Life Animal Parade Omega 3/6/9 90 таблеток</t>
+  </si>
+  <si>
+    <t>SAN83968</t>
+  </si>
+  <si>
+    <t>Nature's Plus Hema-Plex 60 жевательных капсул с ягодным вкусом</t>
+  </si>
+  <si>
+    <t>SAN83999</t>
+  </si>
+  <si>
+    <t>NOW Liquid витамин D3 400 МЕ 59 мл</t>
+  </si>
+  <si>
+    <t>Maximus Pharma</t>
+  </si>
+  <si>
+    <t>SAN84001</t>
+  </si>
+  <si>
+    <t>NutriBiotic витамин Sodium Ascorbate 227 г</t>
+  </si>
+  <si>
+    <t>SAN939685</t>
+  </si>
+  <si>
+    <t>Solgar Magnesium with Vitamin B6 250 таблеток</t>
+  </si>
+  <si>
+    <t>Мендалиева Л</t>
+  </si>
+  <si>
+    <t>SAN939765</t>
+  </si>
+  <si>
+    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 60 таблеток</t>
+  </si>
+  <si>
+    <t>SAN939766</t>
+  </si>
+  <si>
+    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 120 таблеток</t>
+  </si>
+  <si>
+    <t>ИП НАКУБОВА</t>
+  </si>
+  <si>
+    <t>SAN9878</t>
+  </si>
+  <si>
+    <t>NOW витамин Vitamin D-3 10 000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>1GeneticShop</t>
+  </si>
+  <si>
+    <t>100626938_4725004</t>
+  </si>
+  <si>
+    <t>NOW Chlorophyll 100 мг 90 капсул</t>
+  </si>
+  <si>
+    <t>102311888_4725004</t>
+  </si>
+  <si>
+    <t>Solgar минерал Хелат Железа 100 таблеток</t>
+  </si>
+  <si>
+    <t>Vita_market</t>
+  </si>
+  <si>
+    <t>103465071_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition БАД набор Омега 3 и D3 290 капсул</t>
+  </si>
+  <si>
+    <t>Orange Store</t>
+  </si>
+  <si>
+    <t>103874453_4725004</t>
+  </si>
+  <si>
+    <t>Solgar омега жирные кислоты Evening Primrose Oil 1300 мг 60 капсул</t>
+  </si>
+  <si>
+    <t>104166090_4725004</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive! Men's Ultra Potency Complete Multivitamin 60 таблеток</t>
+  </si>
+  <si>
+    <t>105258317_4725004</t>
+  </si>
+  <si>
+    <t>Life-flo минерал Life-flo, Liquid Iodine Plus 59 мл</t>
+  </si>
+  <si>
+    <t>WHEY-KZ</t>
+  </si>
+  <si>
+    <t>108665846_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition, LactoBif, пробиотики, 5 млрд КОЕ, 10 растительных капсул</t>
+  </si>
+  <si>
+    <t>29502959_4725004</t>
+  </si>
+  <si>
+    <t>NOW Витамин для мужчин Adam Men's Multi 90 капсул</t>
+  </si>
+  <si>
+    <t>BADVKZ</t>
+  </si>
+  <si>
+    <t>SAN939704</t>
+  </si>
+  <si>
+    <t>Solgar Omega 3 950 мг 50 капсул</t>
+  </si>
+  <si>
+    <t>104296427_4725004</t>
+  </si>
+  <si>
+    <t>ChildLife Organic Gripe Water kids раствор 59.15 мл</t>
+  </si>
+  <si>
+    <t>104296405_4725004</t>
+  </si>
+  <si>
+    <t>ChildLife Organic Vitamin D3 раствор 10 мл</t>
+  </si>
+  <si>
+    <t>100800962_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 и K2 120 капсул</t>
+  </si>
+  <si>
+    <t>NUTRIFIT iHerb</t>
+  </si>
+  <si>
+    <t>SAN939654</t>
+  </si>
+  <si>
+    <t>Витамины NOW Zinc Picolinate 50 мг 120 капсул</t>
+  </si>
+  <si>
+    <t>NUTRIFITPVL</t>
+  </si>
+  <si>
+    <t>102491637_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Цитрат Магния 60 таблеток</t>
+  </si>
+  <si>
+    <t>Smart Аптека</t>
+  </si>
+  <si>
+    <t>SAN093076</t>
+  </si>
+  <si>
+    <t>БАД Now Foods Витамин D3 25 мкг 1000 МЕ №180</t>
+  </si>
+  <si>
+    <t>SAN84006</t>
+  </si>
+  <si>
+    <t>NOW БАД Vitamin D-3 5000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN84024</t>
+  </si>
+  <si>
+    <t>NOW витамин D-3 1000 IU 180 капсул</t>
+  </si>
+  <si>
+    <t>Хан</t>
+  </si>
+  <si>
+    <t>SAN939630</t>
+  </si>
+  <si>
+    <t>БАД NOW L-Tyrosine 500 мг 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN939641</t>
+  </si>
+  <si>
+    <t>NOW Sunflower Lecithin 1200 мг 200 капсул</t>
+  </si>
+  <si>
+    <t>SAN939653</t>
+  </si>
+  <si>
+    <t>Витамины Now Цинк 50 мг 250 таблеток</t>
+  </si>
+  <si>
+    <t>100904544_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best БАД Collagen Types 1 and 3 with vitamin C 1000 mg 180 таблеток</t>
+  </si>
+  <si>
+    <t>100911728_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best витамин Vitamin D3 125 mcg 5000 IU 180 капсул</t>
+  </si>
+  <si>
+    <t>My Help</t>
+  </si>
+  <si>
+    <t>103355042_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин A 10000 ME 100 капсул</t>
+  </si>
+  <si>
+    <t>Витамины и БАДы</t>
+  </si>
+  <si>
+    <t>103728924_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 5000 МЕ 120 таблеток</t>
+  </si>
+  <si>
+    <t>103729797_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 1000 МЕ 180 капсул</t>
+  </si>
+  <si>
+    <t>104884228_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best Магний с высокой степенью усвоения таблетки 120 шт</t>
+  </si>
+  <si>
+    <t>SAN84034</t>
+  </si>
+  <si>
+    <t>NOW БАД D-3 5000 IU 240 капсул</t>
+  </si>
+  <si>
+    <t>101873686_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best минерал High Absorption Magnesium 100 mg 240 таблеток</t>
+  </si>
+  <si>
+    <t>106773931_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Omega 3 Fish Oil Concentrate</t>
+  </si>
+  <si>
+    <t>102346092_4725004</t>
+  </si>
+  <si>
+    <t>Solgar БАД Концентрат рыбьего жира Омега-3 120 капсул</t>
+  </si>
+  <si>
+    <t>B13shop_kz</t>
+  </si>
+  <si>
+    <t>104399287_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best Магний с высокой степенью усвоения 100 мг 120 таблеток</t>
+  </si>
+  <si>
+    <t>SAN93977171</t>
+  </si>
+  <si>
+    <t>Solgar Ester-C Plus Витамин C 500 MG 100 капсул</t>
+  </si>
+  <si>
+    <t>100569132_4725004</t>
+  </si>
+  <si>
+    <t>Solgar B-Complex 50 100 капсул</t>
+  </si>
+  <si>
+    <t>Organic-Vita</t>
+  </si>
+  <si>
+    <t>102533433_4725004</t>
+  </si>
+  <si>
+    <t>NOW Малат магния 1000 мг 180 таблеток</t>
+  </si>
+  <si>
+    <t>101194056_4725004</t>
+  </si>
+  <si>
+    <t>NOW БАД Inositol Capsules 500 mcg 100 капсул</t>
+  </si>
+  <si>
+    <t>SAN83935</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Buffered Gold C 750 mg 60 капсул</t>
+  </si>
+  <si>
+    <t>103687628_4725004</t>
+  </si>
+  <si>
+    <t>Solgar витамин Vitamin D3 (cholecalciferol) 125 mcg (5000 IU) 100 капсул</t>
+  </si>
+  <si>
+    <t>MyVitamins</t>
+  </si>
+  <si>
+    <t>SAN93971014</t>
+  </si>
+  <si>
+    <t>Nature's Plus БАД Hema-Plex 85 mg 30 таблеток</t>
+  </si>
+  <si>
+    <t>100904549_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best High Absorption Magnesium таблетки 120 шт</t>
+  </si>
+  <si>
+    <t>101196728_4725004</t>
+  </si>
+  <si>
+    <t>Solgar БАД Zinc 50 mg 100 шт</t>
+  </si>
+  <si>
+    <t>104481389_4725004</t>
+  </si>
+  <si>
+    <t>Life-flo минерал Liquid Iodine Plus Апельсин 59 мл</t>
+  </si>
+  <si>
+    <t>SAN939662</t>
+  </si>
+  <si>
+    <t>Витамины NOW Lecithin 1200 мг 100 капсул</t>
+  </si>
+  <si>
+    <t>101135465_4725004</t>
+  </si>
+  <si>
+    <t>Life-flo минерал Жидкий йод плюс 59 мл</t>
+  </si>
+  <si>
+    <t>SAN93971043</t>
+  </si>
+  <si>
+    <t>Nature's Plus БАД Hema-Plex Iron 60 капсул</t>
+  </si>
+  <si>
+    <t>SAN84026</t>
+  </si>
+  <si>
+    <t>NOW рыбий жир Ultra Omega-3 90 капсул</t>
+  </si>
+  <si>
+    <t>SAN24</t>
+  </si>
+  <si>
+    <t>NOW омега жирные кислоты Ultra Omega 3-D 180 капсул</t>
+  </si>
+  <si>
+    <t>108896844_4725004</t>
+  </si>
+  <si>
+    <t>NOW Omega-3 капсулы 200 шт</t>
+  </si>
+  <si>
+    <t>SAN83956</t>
+  </si>
+  <si>
+    <t>Solgar БАД Gentle Iron 25 мг 90 капсул</t>
+  </si>
+  <si>
+    <t>Aigi Shop</t>
+  </si>
+  <si>
+    <t>100454325_4725004</t>
+  </si>
+  <si>
+    <t>Solgar витамин D3 250 MCG 10 000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>ALP ASTANA</t>
+  </si>
+  <si>
+    <t>SAN16</t>
+  </si>
+  <si>
+    <t>ChildLife витамин Echinacea Natural Orange Flavor 30 мл</t>
+  </si>
+  <si>
+    <t>ChildLife</t>
+  </si>
+  <si>
+    <t>ABS Grоup</t>
+  </si>
+  <si>
+    <t>SAN25</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Омега-3 100 капсул</t>
+  </si>
+  <si>
+    <t>Lux boutique_ns</t>
+  </si>
+  <si>
+    <t>SAN3</t>
+  </si>
+  <si>
+    <t>NOW БАД Thyroid Energy 180 капсул</t>
+  </si>
+  <si>
+    <t>SAN84028</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition минерально-витаминный комплекс Immune 4 60 капсул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Gold Nutrition </t>
+  </si>
+  <si>
+    <t>АрАли</t>
+  </si>
+  <si>
+    <t>SAN939602</t>
+  </si>
+  <si>
+    <t>Витамины California Gold Nutrition Vitamin D3 2000ME</t>
+  </si>
+  <si>
+    <t>Vitamins Organic</t>
+  </si>
+  <si>
+    <t>SAN939632</t>
+  </si>
+  <si>
+    <t>Витамины Now Foods Жидкий Liquid D-3 1000 МЕ 30 мл</t>
+  </si>
+  <si>
+    <t>SAN939708</t>
+  </si>
+  <si>
+    <t>NOW Vitamin A 10000 IU 100 капсул</t>
+  </si>
+  <si>
+    <t>SAN939733</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Vitamin D-3 5000 IU 360 капсул</t>
+  </si>
+  <si>
+    <t>SAN9876</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Baby до 12 мес. Витамин Vitamin D3 400 МЕ 10 мл</t>
+  </si>
+  <si>
+    <t>ТОО TRADE SHOP</t>
+  </si>
+  <si>
+    <t>SAN9880</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Витамин D3 50 мкг 2000 МЕ 90 капсул</t>
+  </si>
+  <si>
+    <t>ИП МАКЕТ МАСТЕР</t>
+  </si>
+  <si>
+    <t>100501349_4725004</t>
+  </si>
+  <si>
+    <t>NOW Ashwagandha 450 мг 90 капсул</t>
+  </si>
+  <si>
+    <t>100505318_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Vitamin D-3 125 mcg (5000 IU) 90 капсул</t>
+  </si>
+  <si>
+    <t>100569146_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Gold C Vitamin C 1000 мг 60 капсул</t>
   </si>
   <si>
     <t>Liquidator kz</t>
   </si>
   <si>
-    <t>SAN1</t>
-  </si>
-  <si>
-    <t>Fairhaven Health Nursing Postnatal 60 капсул</t>
-  </si>
-  <si>
-    <t>Fairhaven Health</t>
-  </si>
-  <si>
-    <t>Iherb Organics</t>
-  </si>
-  <si>
-    <t>101611432_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик LactoBif 100 Probiotics 30 капсул</t>
-  </si>
-  <si>
-    <t>101119224_4725004</t>
-  </si>
-  <si>
-    <t>Витамин Д3 2000МЕ 360 капсул</t>
-  </si>
-  <si>
-    <t>Dreamy</t>
-  </si>
-  <si>
-    <t>SAN0939483</t>
-  </si>
-  <si>
-    <t>Витамины Solgar Chelated Iron 100 таблеток</t>
-  </si>
-  <si>
-    <t>Solgar</t>
-  </si>
-  <si>
-    <t>102923547_4725004</t>
-  </si>
-  <si>
-    <t>NOW Magnesium Malate 1000 мг 180 таблеток</t>
-  </si>
-  <si>
-    <t>SAN83951</t>
-  </si>
-  <si>
-    <t>Solgar витамин Vitamin D3 125 mcg 5000 IU 100 капсул</t>
-  </si>
-  <si>
-    <t>SAN84017</t>
-  </si>
-  <si>
-    <t>Nature's Plus мультивитамины Animal Parade Gold вишня 60 таблеток</t>
-  </si>
-  <si>
-    <t>103721404_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition БАД Astaxanthin 12 mg 30 капсул</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition</t>
-  </si>
-  <si>
-    <t>organickz</t>
-  </si>
-  <si>
-    <t>103562539_4725004</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Womens Premium Gummies 75 таблеток</t>
-  </si>
-  <si>
-    <t>104817178_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик LactoBif Probiotics, 100 Billion CFU 30 капсул</t>
-  </si>
-  <si>
-    <t>103737484_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 25 мкг 1000 МЕ 360 капсул</t>
-  </si>
-  <si>
-    <t>104385811_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик Lactobif, Cran-Max 30 капсул</t>
-  </si>
-  <si>
-    <t>100907783_4725004</t>
-  </si>
-  <si>
-    <t>NOW Vitamin D-3 1000 IU 360 капсул</t>
-  </si>
-  <si>
-    <t>Now</t>
-  </si>
-  <si>
-    <t>SAN02</t>
-  </si>
-  <si>
-    <t>Nature's Way БАД Chlorofresh Жидкий Хлорофилл 132 мг 473,2 мл</t>
-  </si>
-  <si>
-    <t>Nature's Way</t>
-  </si>
-  <si>
-    <t>SAN0506</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition БАД Астаксантин 12 мг 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN83995</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Alive! Kid's Chewable Multivitamin Orange &amp; Berry 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN84023</t>
-  </si>
-  <si>
-    <t>NOW БАД Magnesium Citrate 180 капсул</t>
-  </si>
-  <si>
-    <t>SAN9881</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Hydrolyzed Collagen Vitamin C 250 таблеток</t>
-  </si>
-  <si>
-    <t>100625548_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Melatonin 3 мг 120 таблеток</t>
-  </si>
-  <si>
-    <t>100912861_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Zinc Picolinate 22 мг таблетки 100 шт</t>
-  </si>
-  <si>
-    <t>101193682_4725004</t>
-  </si>
-  <si>
-    <t>Solgar БАД Biotin 10000 mcg 120 капсул</t>
-  </si>
-  <si>
-    <t>103055610_4725004</t>
-  </si>
-  <si>
-    <t>Now Kid-Cal Chewable Calcium 100 капсул</t>
-  </si>
-  <si>
-    <t>105786015_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Bone Food 411 г</t>
-  </si>
-  <si>
-    <t>ECO iHERBKZ</t>
-  </si>
-  <si>
-    <t>107175564_4725004</t>
-  </si>
-  <si>
-    <t>NOW C-500+Calcium 100 таблеток</t>
-  </si>
-  <si>
-    <t>SAN0939547</t>
-  </si>
-  <si>
-    <t>БАД Nutribiotic Sodium Ascorbate 250 капсул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NutriBiotic </t>
-  </si>
-  <si>
-    <t>ИП НАКУБОВА</t>
-  </si>
-  <si>
-    <t>SAN83922</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Астаксантин 30 капсул</t>
-  </si>
-  <si>
-    <t>IherbStore</t>
-  </si>
-  <si>
-    <t>SAN83931</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик LactoBif Probiotics 60 капсул</t>
-  </si>
-  <si>
-    <t>Siveys</t>
-  </si>
-  <si>
-    <t>SAN83962</t>
-  </si>
-  <si>
-    <t>Nature's Plus омега жирные кислоты Source of Life Animal Parade Omega 3/6/9 90 таблеток</t>
-  </si>
-  <si>
-    <t>SAN83968</t>
-  </si>
-  <si>
-    <t>Nature's Plus Hema-Plex 60 жевательных капсул с ягодным вкусом</t>
-  </si>
-  <si>
-    <t>My Help</t>
-  </si>
-  <si>
-    <t>SAN83999</t>
-  </si>
-  <si>
-    <t>NOW Liquid витамин D3 400 МЕ 59 мл</t>
-  </si>
-  <si>
-    <t>ИП НУРИЕВА</t>
-  </si>
-  <si>
-    <t>SAN84001</t>
-  </si>
-  <si>
-    <t>NutriBiotic витамин Sodium Ascorbate 227 г</t>
-  </si>
-  <si>
-    <t>SAN939628</t>
-  </si>
-  <si>
-    <t>Витамины NOW Vitamin D-3 &amp; K-2 1000МЕ 45 мкг 120 капсул</t>
-  </si>
-  <si>
-    <t>Мурат Ракета</t>
-  </si>
-  <si>
-    <t>SAN939685</t>
-  </si>
-  <si>
-    <t>Solgar Magnesium with Vitamin B6 250 таблеток</t>
-  </si>
-  <si>
-    <t>VitaMama</t>
-  </si>
-  <si>
-    <t>SAN939765</t>
-  </si>
-  <si>
-    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 60 таблеток</t>
-  </si>
-  <si>
-    <t>SAN939766</t>
-  </si>
-  <si>
-    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 120 таблеток</t>
-  </si>
-  <si>
-    <t>SAN9878</t>
-  </si>
-  <si>
-    <t>NOW витамин Vitamin D-3 10 000 IU 120 капсул</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>Кот маркет</t>
-  </si>
-  <si>
-    <t>100626938_4725004</t>
-  </si>
-  <si>
-    <t>NOW Chlorophyll 100 мг 90 капсул</t>
-  </si>
-  <si>
-    <t>Maximus Pharma</t>
-  </si>
-  <si>
-    <t>102311888_4725004</t>
-  </si>
-  <si>
-    <t>Solgar минерал Хелат Железа 100 таблеток</t>
-  </si>
-  <si>
-    <t>Vita_market</t>
-  </si>
-  <si>
-    <t>103465071_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition БАД набор Омега 3 и D3 290 капсул</t>
-  </si>
-  <si>
-    <t>103874453_4725004</t>
-  </si>
-  <si>
-    <t>Solgar омега жирные кислоты Evening Primrose Oil 1300 мг 60 капсул</t>
-  </si>
-  <si>
-    <t>104166090_4725004</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Alive! Men's Ultra Potency Complete Multivitamin 60 таблеток</t>
-  </si>
-  <si>
-    <t>105258317_4725004</t>
-  </si>
-  <si>
-    <t>Life-flo минерал Life-flo, Liquid Iodine Plus 59 мл</t>
-  </si>
-  <si>
-    <t>WHEY-KZ</t>
-  </si>
-  <si>
-    <t>108665846_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition, LactoBif, пробиотики, 5 млрд КОЕ, 10 растительных капсул</t>
-  </si>
-  <si>
-    <t>29502959_4725004</t>
-  </si>
-  <si>
-    <t>NOW Витамин для мужчин Adam Men's Multi 90 капсул</t>
-  </si>
-  <si>
-    <t>BADVKZ</t>
-  </si>
-  <si>
-    <t>SAN939704</t>
-  </si>
-  <si>
-    <t>Solgar Omega 3 950 мг 50 капсул</t>
-  </si>
-  <si>
-    <t>104296427_4725004</t>
-  </si>
-  <si>
-    <t>ChildLife Organic Gripe Water kids раствор 59.15 мл</t>
-  </si>
-  <si>
-    <t>104296405_4725004</t>
-  </si>
-  <si>
-    <t>ChildLife Organic Vitamin D3 раствор 10 мл</t>
-  </si>
-  <si>
-    <t>100800962_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 и K2 120 капсул</t>
-  </si>
-  <si>
-    <t>XS Market</t>
-  </si>
-  <si>
-    <t>SAN939654</t>
-  </si>
-  <si>
-    <t>Витамины NOW Zinc Picolinate 50 мг 120 капсул</t>
-  </si>
-  <si>
-    <t>NUTRIFITPVL</t>
-  </si>
-  <si>
-    <t>102491637_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Цитрат Магния 60 таблеток</t>
-  </si>
-  <si>
-    <t>Smart Аптека</t>
-  </si>
-  <si>
-    <t>SAN093076</t>
-  </si>
-  <si>
-    <t>БАД Now Foods Витамин D3 25 мкг 1000 МЕ №180</t>
-  </si>
-  <si>
-    <t>SAN84006</t>
-  </si>
-  <si>
-    <t>NOW БАД Vitamin D-3 5000 IU 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN84024</t>
-  </si>
-  <si>
-    <t>NOW витамин D-3 1000 IU 180 капсул</t>
-  </si>
-  <si>
-    <t>Хан</t>
-  </si>
-  <si>
-    <t>SAN939630</t>
-  </si>
-  <si>
-    <t>БАД NOW L-Tyrosine 500 мг 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN939641</t>
-  </si>
-  <si>
-    <t>NOW Sunflower Lecithin 1200 мг 200 капсул</t>
-  </si>
-  <si>
-    <t>Aigi Shop</t>
-  </si>
-  <si>
-    <t>SAN939653</t>
-  </si>
-  <si>
-    <t>Витамины Now Цинк 50 мг 250 таблеток</t>
-  </si>
-  <si>
-    <t>100904544_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best БАД Collagen Types 1 and 3 with vitamin C 1000 mg 180 таблеток</t>
-  </si>
-  <si>
-    <t>100911728_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best витамин Vitamin D3 125 mcg 5000 IU 180 капсул</t>
-  </si>
-  <si>
-    <t>103355042_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин A 10000 ME 100 капсул</t>
-  </si>
-  <si>
-    <t>Витамины и БАДы</t>
-  </si>
-  <si>
-    <t>103728924_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 5000 МЕ 120 таблеток</t>
-  </si>
-  <si>
-    <t>103729797_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 1000 МЕ 180 капсул</t>
-  </si>
-  <si>
-    <t>104884228_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best Магний с высокой степенью усвоения таблетки 120 шт</t>
-  </si>
-  <si>
-    <t>SAN84034</t>
-  </si>
-  <si>
-    <t>NOW БАД D-3 5000 IU 240 капсул</t>
-  </si>
-  <si>
-    <t>FITO-SHOPKZ</t>
-  </si>
-  <si>
-    <t>101873686_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best минерал High Absorption Magnesium 100 mg 240 таблеток</t>
-  </si>
-  <si>
-    <t>106773931_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Omega 3 Fish Oil Concentrate</t>
-  </si>
-  <si>
-    <t>102346092_4725004</t>
-  </si>
-  <si>
-    <t>Solgar БАД Концентрат рыбьего жира Омега-3 120 капсул</t>
-  </si>
-  <si>
-    <t>B13shop_kz</t>
-  </si>
-  <si>
-    <t>104399287_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best Магний с высокой степенью усвоения 100 мг 120 таблеток</t>
-  </si>
-  <si>
-    <t>SAN93977171</t>
-  </si>
-  <si>
-    <t>Solgar Ester-C Plus Витамин C 500 MG 100 капсул</t>
-  </si>
-  <si>
-    <t>Jefferson System</t>
-  </si>
-  <si>
-    <t>100569132_4725004</t>
-  </si>
-  <si>
-    <t>Solgar B-Complex 50 100 капсул</t>
-  </si>
-  <si>
-    <t>102533433_4725004</t>
-  </si>
-  <si>
-    <t>NOW Малат магния 1000 мг 180 таблеток</t>
-  </si>
-  <si>
-    <t>101194056_4725004</t>
-  </si>
-  <si>
-    <t>NOW БАД Inositol Capsules 500 mcg 100 капсул</t>
-  </si>
-  <si>
-    <t>SAN83935</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition витамин Buffered Gold C 750 mg 60 капсул</t>
-  </si>
-  <si>
-    <t>103687628_4725004</t>
-  </si>
-  <si>
-    <t>Solgar витамин Vitamin D3 (cholecalciferol) 125 mcg (5000 IU) 100 капсул</t>
-  </si>
-  <si>
-    <t>MyVitamins</t>
-  </si>
-  <si>
-    <t>SAN93971014</t>
-  </si>
-  <si>
-    <t>Nature's Plus БАД Hema-Plex 85 mg 30 таблеток</t>
-  </si>
-  <si>
-    <t>100904549_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best High Absorption Magnesium таблетки 120 шт</t>
-  </si>
-  <si>
-    <t>101196728_4725004</t>
-  </si>
-  <si>
-    <t>Solgar БАД Zinc 50 mg 100 шт</t>
-  </si>
-  <si>
-    <t>Магазин здоровья Health and Hair</t>
-  </si>
-  <si>
-    <t>104481389_4725004</t>
-  </si>
-  <si>
-    <t>Life-flo минерал Liquid Iodine Plus Апельсин 59 мл</t>
-  </si>
-  <si>
-    <t>SAN939662</t>
-  </si>
-  <si>
-    <t>Витамины NOW Lecithin 1200 мг 100 капсул</t>
-  </si>
-  <si>
-    <t>101135465_4725004</t>
-  </si>
-  <si>
-    <t>Life-flo минерал Жидкий йод плюс 59 мл</t>
-  </si>
-  <si>
-    <t>SAN93971043</t>
-  </si>
-  <si>
-    <t>Nature's Plus БАД Hema-Plex Iron 60 капсул</t>
-  </si>
-  <si>
-    <t>SAN84026</t>
-  </si>
-  <si>
-    <t>NOW рыбий жир Ultra Omega-3 90 капсул</t>
-  </si>
-  <si>
-    <t>SAN24</t>
-  </si>
-  <si>
-    <t>NOW омега жирные кислоты Ultra Omega 3-D 180 капсул</t>
-  </si>
-  <si>
-    <t>108896844_4725004</t>
-  </si>
-  <si>
-    <t>NOW Omega-3 капсулы 200 шт</t>
-  </si>
-  <si>
-    <t>SAN83956</t>
-  </si>
-  <si>
-    <t>Solgar БАД Gentle Iron 25 мг 90 капсул</t>
-  </si>
-  <si>
-    <t>100454325_4725004</t>
-  </si>
-  <si>
-    <t>Solgar витамин D3 250 MCG 10 000 IU 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN16</t>
-  </si>
-  <si>
-    <t>ChildLife витамин Echinacea Natural Orange Flavor 30 мл</t>
-  </si>
-  <si>
-    <t>ChildLife</t>
-  </si>
-  <si>
-    <t>My_Herb</t>
-  </si>
-  <si>
-    <t>SAN25</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Омега-3 100 капсул</t>
-  </si>
-  <si>
-    <t>SAN3</t>
-  </si>
-  <si>
-    <t>NOW БАД Thyroid Energy 180 капсул</t>
-  </si>
-  <si>
-    <t>SAN84028</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition минерально-витаминный комплекс Immune 4 60 капсул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California Gold Nutrition </t>
-  </si>
-  <si>
-    <t>SAN939602</t>
-  </si>
-  <si>
-    <t>Витамины California Gold Nutrition Vitamin D3 2000ME</t>
-  </si>
-  <si>
-    <t>SAN939632</t>
-  </si>
-  <si>
-    <t>Витамины Now Foods Жидкий Liquid D-3 1000 МЕ 30 мл</t>
-  </si>
-  <si>
-    <t>Phoenix Nutrition</t>
-  </si>
-  <si>
-    <t>SAN939708</t>
-  </si>
-  <si>
-    <t>NOW Vitamin A 10000 IU 100 капсул</t>
-  </si>
-  <si>
-    <t>SAN939733</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Vitamin D-3 5000 IU 360 капсул</t>
-  </si>
-  <si>
-    <t>SAN9876</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Baby до 12 мес. Витамин Vitamin D3 400 МЕ 10 мл</t>
-  </si>
-  <si>
-    <t>ТОО TRADE SHOP</t>
-  </si>
-  <si>
-    <t>SAN9880</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Витамин D3 50 мкг 2000 МЕ 90 капсул</t>
-  </si>
-  <si>
-    <t>ИП МАКЕТ МАСТЕР</t>
-  </si>
-  <si>
-    <t>100501349_4725004</t>
-  </si>
-  <si>
-    <t>NOW Ashwagandha 450 мг 90 капсул</t>
-  </si>
-  <si>
-    <t>Orange Store</t>
-  </si>
-  <si>
-    <t>100505318_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition витамин Vitamin D-3 125 mcg (5000 IU) 90 капсул</t>
-  </si>
-  <si>
-    <t>100569146_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition витамин Gold C Vitamin C 1000 мг 60 капсул</t>
-  </si>
-  <si>
     <t>100907856_4725004</t>
   </si>
   <si>
@@ -815,6 +899,9 @@
     <t>NOW Vitamin A 10 000 Me №100 капсул</t>
   </si>
   <si>
+    <t>ИП ATDE</t>
+  </si>
+  <si>
     <t>101901288_4725004</t>
   </si>
   <si>
@@ -827,9 +914,6 @@
     <t>Natures Plus Animal parade Calcium ванильный вкус 90 таблеток</t>
   </si>
   <si>
-    <t>Vitamins Organic</t>
-  </si>
-  <si>
     <t>102119033_4725004</t>
   </si>
   <si>
@@ -848,9 +932,6 @@
     <t>NOW омега жирные кислоты DHA Chewables для детей 60 таблеток</t>
   </si>
   <si>
-    <t>MY_VIT</t>
-  </si>
-  <si>
     <t>103246026_4725004</t>
   </si>
   <si>
@@ -873,12 +954,6 @@
   </si>
   <si>
     <t>NOW капли Liquid Vitamin D-3 30 мл</t>
-  </si>
-  <si>
-    <t>104715331_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition рыбий жир Omega 3 Premium Fish Oil 180 mg EPA/120 mg DHA 100 капсул</t>
   </si>
   <si>
     <t>105578595_4725004</t>
@@ -972,12 +1047,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -985,6 +1054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,13 +1120,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1357,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1436,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>8337</v>
+        <v>6150</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1457,23 +1532,21 @@
       <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4">
-        <v>8339</v>
-      </c>
-      <c r="N2" s="5">
-        <v>-1</v>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>-155</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="4">
-        <v>8338</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>5591.5</v>
-      </c>
-      <c r="R2" s="7">
-        <v>6925.74</v>
+        <v>5995</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1487,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>13319</v>
+        <v>4200</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1508,23 +1581,21 @@
       <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4">
-        <v>13321</v>
-      </c>
-      <c r="N3" s="5">
-        <v>-1</v>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>-353</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="4">
-        <v>13320</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>6977.04</v>
-      </c>
-      <c r="R3" s="7">
-        <v>9108.4</v>
+        <v>3847</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1536,7 +1607,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>18528</v>
+        <v>7795</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1557,23 +1628,11 @@
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="4">
-        <v>18530</v>
-      </c>
-      <c r="N4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="4">
-        <v>18529</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>9428.43</v>
-      </c>
-      <c r="R4" s="7">
-        <v>12393.23</v>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1583,9 +1642,11 @@
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="2">
-        <v>5903</v>
+        <v>8382</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1606,23 +1667,21 @@
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4">
-        <v>5905</v>
-      </c>
-      <c r="N5" s="5">
-        <v>-1</v>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>-285</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="4">
-        <v>5904</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>4381.4</v>
-      </c>
-      <c r="R5" s="7">
-        <v>5326.2</v>
+        <v>8097</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1632,11 +1691,9 @@
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>9941</v>
+        <v>7990</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1657,22 +1714,20 @@
       <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="4">
-        <v>9943</v>
-      </c>
-      <c r="N6" s="5">
-        <v>-1</v>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>-500</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P6" s="4">
-        <v>9942</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
+        <v>7490</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1683,9 +1738,11 @@
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2">
-        <v>13219</v>
+        <v>12898</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1707,36 +1764,36 @@
         <v>10</v>
       </c>
       <c r="M7" s="4">
-        <v>13221</v>
-      </c>
-      <c r="N7" s="5">
+        <v>12900</v>
+      </c>
+      <c r="N7" s="7">
         <v>-1</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P7" s="4">
-        <v>13220</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
+        <v>12899</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>11680</v>
+        <v>8400</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1757,25 +1814,35 @@
       <c r="L8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="6">
-        <v>7568.35</v>
-      </c>
-      <c r="R8" s="7">
-        <v>9437.15</v>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>-4169</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4231</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>8752</v>
+        <v>15000</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1796,37 +1863,35 @@
       <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
-        <v>8754</v>
-      </c>
-      <c r="N9" s="5">
-        <v>-1</v>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>-202</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P9" s="4">
-        <v>8753</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>4955.15</v>
-      </c>
-      <c r="R9" s="7">
-        <v>6355.79</v>
+        <v>14798</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>8668.92</v>
+      </c>
+      <c r="R9" s="6">
+        <v>11068.92</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>7851</v>
+        <v>6480</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1847,35 +1912,35 @@
       <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="4">
-        <v>7853</v>
-      </c>
-      <c r="N10" s="5">
-        <v>-1</v>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>-484</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="4">
-        <v>7852</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>3390.37</v>
-      </c>
-      <c r="R10" s="7">
-        <v>4646.85</v>
+        <v>5996</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3233.89</v>
+      </c>
+      <c r="R10" s="6">
+        <v>4270.69</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="2">
-        <v>14859</v>
+        <v>11500</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1896,35 +1961,35 @@
       <c r="L11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="4">
-        <v>14861</v>
-      </c>
-      <c r="N11" s="5">
-        <v>-1</v>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>-300</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="P11" s="4">
-        <v>14860</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>7259.89</v>
-      </c>
-      <c r="R11" s="7">
-        <v>9637.650000000001</v>
+        <v>11200</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="2">
-        <v>18694</v>
+        <v>6960</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1945,23 +2010,33 @@
       <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="6">
-        <v>9428.43</v>
-      </c>
-      <c r="R12" s="7">
-        <v>12419.47</v>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>-235</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6725</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>6557</v>
+        <v>7199</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1982,35 +2057,35 @@
       <c r="L13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4">
-        <v>6559</v>
-      </c>
-      <c r="N13" s="5">
-        <v>-1</v>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>-59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4">
-        <v>6558</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>3416.45</v>
-      </c>
-      <c r="R13" s="7">
-        <v>4465.889999999999</v>
+        <v>7140</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="2">
-        <v>11670</v>
+        <v>3480</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -2031,37 +2106,33 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="4">
-        <v>11672</v>
-      </c>
-      <c r="N14" s="5">
-        <v>-1</v>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>-20</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="P14" s="4">
-        <v>11671</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>7093.69</v>
-      </c>
-      <c r="R14" s="7">
-        <v>8961.209999999999</v>
+        <v>3460</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>6191</v>
+        <v>7675</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -2082,25 +2153,33 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="6">
-        <v>3416.45</v>
-      </c>
-      <c r="R15" s="7">
-        <v>4407.01</v>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>-1075</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="4">
+        <v>6600</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>10106</v>
+        <v>6553</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -2121,25 +2200,37 @@
       <c r="L16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="6">
-        <v>6379.11</v>
-      </c>
-      <c r="R16" s="7">
-        <v>7996.07</v>
+      <c r="M16" s="4">
+        <v>6557</v>
+      </c>
+      <c r="N16" s="7">
+        <v>-3</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="4">
+        <v>6554</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>3416.45</v>
+      </c>
+      <c r="R16" s="6">
+        <v>4465.57</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2">
-        <v>22498</v>
+        <v>9939</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -2160,25 +2251,35 @@
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="6">
-        <v>15700.02</v>
-      </c>
-      <c r="R17" s="7">
-        <v>19299.7</v>
+      <c r="M17" s="4">
+        <v>9941</v>
+      </c>
+      <c r="N17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="4">
+        <v>9940</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>11292</v>
+        <v>18521</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -2199,25 +2300,37 @@
       <c r="L18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="6">
-        <v>6927.41</v>
-      </c>
-      <c r="R18" s="7">
-        <v>8734.129999999999</v>
+      <c r="M18" s="4">
+        <v>18528</v>
+      </c>
+      <c r="N18" s="7">
+        <v>-6</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="4">
+        <v>18522</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>9428.43</v>
+      </c>
+      <c r="R18" s="6">
+        <v>12392.91</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2">
-        <v>16450</v>
+        <v>8749</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -2238,25 +2351,35 @@
       <c r="L19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
+      <c r="M19" s="4">
+        <v>8752</v>
+      </c>
+      <c r="N19" s="7">
+        <v>-2</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="4">
+        <v>8750</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>4955.15</v>
+      </c>
+      <c r="R19" s="6">
+        <v>6355.469999999999</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>12091</v>
+        <v>14857</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -2277,23 +2400,35 @@
       <c r="L20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="6">
-        <v>5841.87</v>
-      </c>
-      <c r="R20" s="7">
-        <v>7776.43</v>
+      <c r="M20" s="4">
+        <v>14859</v>
+      </c>
+      <c r="N20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="4">
+        <v>14858</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>7259.89</v>
+      </c>
+      <c r="R20" s="6">
+        <v>9637.33</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>8794</v>
+        <v>11666</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -2314,23 +2449,35 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0</v>
+      <c r="M21" s="4">
+        <v>11670</v>
+      </c>
+      <c r="N21" s="7">
+        <v>-3</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="4">
+        <v>11667</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>7093.69</v>
+      </c>
+      <c r="R21" s="6">
+        <v>8960.889999999999</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>8449</v>
+        <v>5901</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -2351,23 +2498,37 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="6">
-        <v>5028.18</v>
-      </c>
-      <c r="R22" s="7">
-        <v>6380.02</v>
+      <c r="M22" s="4">
+        <v>5903</v>
+      </c>
+      <c r="N22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="4">
+        <v>5902</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>4381.4</v>
+      </c>
+      <c r="R22" s="6">
+        <v>5325.879999999999</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="2">
-        <v>19998</v>
+        <v>8332</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -2388,23 +2549,37 @@
       <c r="L23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0</v>
+      <c r="M23" s="4">
+        <v>8337</v>
+      </c>
+      <c r="N23" s="7">
+        <v>-4</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="4">
+        <v>8333</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>5591.5</v>
+      </c>
+      <c r="R23" s="6">
+        <v>6925.42</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D24" s="2">
-        <v>8346</v>
+        <v>13317</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -2425,23 +2600,37 @@
       <c r="L24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="6">
-        <v>4908.21</v>
-      </c>
-      <c r="R24" s="7">
-        <v>6243.57</v>
+      <c r="M24" s="4">
+        <v>13319</v>
+      </c>
+      <c r="N24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="4">
+        <v>13318</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>6977.04</v>
+      </c>
+      <c r="R24" s="6">
+        <v>9108.08</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D25" s="2">
-        <v>19821</v>
+        <v>11674</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -2463,34 +2652,36 @@
         <v>10</v>
       </c>
       <c r="M25" s="4">
-        <v>19824</v>
-      </c>
-      <c r="N25" s="5">
-        <v>-2</v>
+        <v>11680</v>
+      </c>
+      <c r="N25" s="7">
+        <v>-5</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P25" s="4">
-        <v>19822</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>6285.62</v>
-      </c>
-      <c r="R25" s="7">
-        <v>9457.459999999999</v>
+        <v>11675</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>7568.35</v>
+      </c>
+      <c r="R25" s="6">
+        <v>9437.15</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D26" s="2">
-        <v>7281</v>
+        <v>7851</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -2511,35 +2702,35 @@
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <v>-32</v>
+      <c r="M26" s="4">
+        <v>7853</v>
+      </c>
+      <c r="N26" s="7">
+        <v>-1</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="P26" s="4">
-        <v>7249</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
+        <v>7852</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>3390.37</v>
+      </c>
+      <c r="R26" s="6">
+        <v>4646.85</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>19731</v>
+        <v>18691</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -2560,35 +2751,37 @@
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4">
-        <v>-1231</v>
+      <c r="M27" s="4">
+        <v>18694</v>
+      </c>
+      <c r="N27" s="7">
+        <v>-2</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P27" s="4">
-        <v>18500</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>9839.4</v>
-      </c>
-      <c r="R27" s="7">
-        <v>12996.36</v>
+        <v>18692</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>9428.43</v>
+      </c>
+      <c r="R27" s="6">
+        <v>12419.47</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
-        <v>8494</v>
+        <v>6189</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -2609,35 +2802,37 @@
       <c r="L28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4">
-        <v>-494</v>
+      <c r="M28" s="4">
+        <v>6191</v>
+      </c>
+      <c r="N28" s="7">
+        <v>-1</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P28" s="4">
-        <v>8000</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>4115.35</v>
-      </c>
-      <c r="R28" s="7">
-        <v>5474.39</v>
+        <v>6190</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>3416.45</v>
+      </c>
+      <c r="R28" s="6">
+        <v>4407.01</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2">
-        <v>10772</v>
+        <v>10103</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -2658,35 +2853,37 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4">
-        <v>-335</v>
+      <c r="M29" s="4">
+        <v>10106</v>
+      </c>
+      <c r="N29" s="7">
+        <v>-2</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P29" s="4">
-        <v>10437</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>7123.7</v>
-      </c>
-      <c r="R29" s="7">
-        <v>8847.219999999999</v>
+        <v>10104</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>6379.11</v>
+      </c>
+      <c r="R29" s="6">
+        <v>7996.07</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2">
-        <v>15793</v>
+        <v>22498</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -2707,35 +2904,25 @@
       <c r="L30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4">
-        <v>-119</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" s="4">
-        <v>15674</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>8382.030000000001</v>
-      </c>
-      <c r="R30" s="7">
-        <v>10908.91</v>
+      <c r="Q30" s="5">
+        <v>15700.02</v>
+      </c>
+      <c r="R30" s="6">
+        <v>19299.7</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2">
-        <v>6859</v>
+        <v>11289</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -2756,35 +2943,35 @@
       <c r="L31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4">
-        <v>-37</v>
+      <c r="M31" s="4">
+        <v>11292</v>
+      </c>
+      <c r="N31" s="7">
+        <v>-2</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P31" s="4">
-        <v>6822</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>3588.77</v>
-      </c>
-      <c r="R31" s="7">
-        <v>4686.21</v>
+        <v>11290</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>6927.41</v>
+      </c>
+      <c r="R31" s="6">
+        <v>8734.129999999999</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>5199</v>
+        <v>8447</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2805,35 +2992,35 @@
       <c r="L32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4">
-        <v>-200</v>
+      <c r="M32" s="4">
+        <v>8449</v>
+      </c>
+      <c r="N32" s="7">
+        <v>-1</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P32" s="4">
-        <v>4999</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>2901.86</v>
-      </c>
-      <c r="R32" s="7">
-        <v>3733.7</v>
+        <v>8448</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>5028.18</v>
+      </c>
+      <c r="R32" s="6">
+        <v>6380.02</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <v>7197</v>
+        <v>19998</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -2854,35 +3041,23 @@
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4">
-        <v>-218</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="4">
-        <v>6979</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>4682.79</v>
-      </c>
-      <c r="R33" s="7">
-        <v>5834.309999999999</v>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>7179</v>
+        <v>8346</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -2903,35 +3078,23 @@
       <c r="L34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4">
-        <v>-233</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P34" s="4">
-        <v>6946</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
+      <c r="Q34" s="5">
+        <v>4908.21</v>
+      </c>
+      <c r="R34" s="6">
+        <v>6243.57</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>14784</v>
+        <v>7281</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -2954,33 +3117,33 @@
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4">
-        <v>-484</v>
+        <v>-32</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="P35" s="4">
-        <v>14300</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>8846.25</v>
-      </c>
-      <c r="R35" s="7">
-        <v>11211.69</v>
+        <v>7249</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="D36" s="2">
-        <v>11615</v>
+        <v>19731</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -3003,33 +3166,33 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4">
-        <v>-416</v>
+        <v>-1232</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P36" s="4">
-        <v>11199</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>6671.2</v>
-      </c>
-      <c r="R36" s="7">
-        <v>8529.6</v>
+        <v>18499</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>9839.4</v>
+      </c>
+      <c r="R36" s="6">
+        <v>12996.36</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2">
-        <v>19000</v>
+        <v>8494</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -3052,33 +3215,33 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4">
-        <v>-1001</v>
+        <v>-494</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="P37" s="4">
-        <v>17999</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>11339.48</v>
-      </c>
-      <c r="R37" s="7">
-        <v>14379.48</v>
+        <v>8000</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>4115.35</v>
+      </c>
+      <c r="R37" s="6">
+        <v>5474.39</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2">
-        <v>6488</v>
+        <v>10772</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -3101,31 +3264,33 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4">
-        <v>-129</v>
+        <v>-352</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="P38" s="4">
-        <v>6359</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>4058.01</v>
-      </c>
-      <c r="R38" s="7">
-        <v>5096.09</v>
+        <v>10420</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>7123.7</v>
+      </c>
+      <c r="R38" s="6">
+        <v>8847.219999999999</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D39" s="2">
-        <v>9839</v>
+        <v>15793</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -3148,31 +3313,33 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4">
-        <v>-1639</v>
+        <v>-126</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="P39" s="4">
-        <v>8200</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>5210.73</v>
-      </c>
-      <c r="R39" s="7">
-        <v>6784.969999999999</v>
+        <v>15667</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>8382.030000000001</v>
+      </c>
+      <c r="R39" s="6">
+        <v>10908.91</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D40" s="2">
-        <v>10999</v>
+        <v>6859</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -3195,31 +3362,33 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4">
-        <v>-109</v>
+        <v>-39</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="P40" s="4">
-        <v>10890</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>5085.55</v>
-      </c>
-      <c r="R40" s="7">
-        <v>6845.39</v>
+        <v>6820</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>3588.77</v>
+      </c>
+      <c r="R40" s="6">
+        <v>4686.21</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D41" s="2">
-        <v>11769</v>
+        <v>5199</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -3242,31 +3411,33 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4">
-        <v>-857</v>
+        <v>-199</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="P41" s="4">
-        <v>10912</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>7823.93</v>
-      </c>
-      <c r="R41" s="7">
-        <v>9706.970000000001</v>
+        <v>5000</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>2901.86</v>
+      </c>
+      <c r="R41" s="6">
+        <v>3733.7</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D42" s="2">
-        <v>12489</v>
+        <v>7197</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -3287,23 +3458,35 @@
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="6">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
+        <v>-221</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="4">
+        <v>6976</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>4682.79</v>
+      </c>
+      <c r="R42" s="6">
+        <v>5834.309999999999</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D43" s="2">
-        <v>16569</v>
+        <v>14784</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -3326,31 +3509,33 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4">
-        <v>-1569</v>
+        <v>-284</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="P43" s="4">
-        <v>15000</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>9373.07</v>
-      </c>
-      <c r="R43" s="7">
-        <v>12024.11</v>
+        <v>14500</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>8846.25</v>
+      </c>
+      <c r="R43" s="6">
+        <v>11211.69</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D44" s="2">
-        <v>6179</v>
+        <v>11615</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -3373,31 +3558,33 @@
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4">
-        <v>-1289</v>
+        <v>-416</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="P44" s="4">
-        <v>4890</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>3072.2</v>
-      </c>
-      <c r="R44" s="7">
-        <v>4060.84</v>
+        <v>11199</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>6671.2</v>
+      </c>
+      <c r="R44" s="6">
+        <v>8529.6</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D45" s="2">
-        <v>1830</v>
+        <v>19000</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -3420,31 +3607,33 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4">
-        <v>-125</v>
+        <v>-1003</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="P45" s="4">
-        <v>1705</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>518.5599999999999</v>
-      </c>
-      <c r="R45" s="7">
-        <v>811.3599999999999</v>
+        <v>17997</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>11339.48</v>
+      </c>
+      <c r="R45" s="6">
+        <v>14379.48</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D46" s="2">
-        <v>14989</v>
+        <v>6488</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -3467,33 +3656,31 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4">
-        <v>-890</v>
+        <v>-150</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P46" s="4">
-        <v>14099</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>7896.95</v>
-      </c>
-      <c r="R46" s="7">
-        <v>10295.19</v>
+        <v>6338</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>4058.01</v>
+      </c>
+      <c r="R46" s="6">
+        <v>5096.09</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2">
-        <v>14998</v>
+        <v>9839</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -3514,23 +3701,33 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="6">
-        <v>10870.04</v>
-      </c>
-      <c r="R47" s="7">
-        <v>13269.72</v>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
+        <v>-1639</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" s="4">
+        <v>8200</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>5210.73</v>
+      </c>
+      <c r="R47" s="6">
+        <v>6784.969999999999</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
-        <v>11980</v>
+        <v>10999</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -3551,23 +3748,33 @@
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="6">
-        <v>0</v>
-      </c>
-      <c r="R48" s="7">
-        <v>0</v>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
+        <v>-109</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48" s="4">
+        <v>10890</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>5085.55</v>
+      </c>
+      <c r="R48" s="6">
+        <v>6845.39</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
-        <v>13700</v>
+        <v>11769</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -3588,23 +3795,33 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="6">
-        <v>0</v>
-      </c>
-      <c r="R49" s="7">
-        <v>0</v>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
+        <v>-863</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" s="4">
+        <v>10906</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>7823.93</v>
+      </c>
+      <c r="R49" s="6">
+        <v>9706.970000000001</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>7200</v>
+        <v>12489</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -3625,35 +3842,23 @@
       <c r="L50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4">
-        <v>-913</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P50" s="4">
-        <v>6287</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0</v>
-      </c>
-      <c r="R50" s="7">
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2">
-        <v>7499</v>
+        <v>16569</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -3676,31 +3881,31 @@
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4">
-        <v>-424</v>
+        <v>-1569</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="P51" s="4">
-        <v>7075</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>4506.58</v>
-      </c>
-      <c r="R51" s="7">
-        <v>5706.42</v>
+        <v>15000</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>9373.07</v>
+      </c>
+      <c r="R51" s="6">
+        <v>12024.11</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
-        <v>11000</v>
+        <v>6179</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
@@ -3723,33 +3928,31 @@
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4">
-        <v>-2697</v>
+        <v>-1289</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P52" s="4">
-        <v>8303</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>0</v>
-      </c>
-      <c r="R52" s="7">
-        <v>0</v>
+        <v>4890</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>3072.2</v>
+      </c>
+      <c r="R52" s="6">
+        <v>4060.84</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <v>3288</v>
+        <v>1830</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
@@ -3772,33 +3975,31 @@
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4">
-        <v>-23</v>
+        <v>-127</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="P53" s="4">
-        <v>3265</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>1836.02</v>
-      </c>
-      <c r="R53" s="7">
-        <v>2362.1</v>
+        <v>1703</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>518.5599999999999</v>
+      </c>
+      <c r="R53" s="6">
+        <v>811.3599999999999</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <v>4250</v>
+        <v>14989</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -3821,33 +4022,33 @@
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4">
-        <v>-331</v>
+        <v>-890</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="P54" s="4">
-        <v>3919</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>2769.67</v>
-      </c>
-      <c r="R54" s="7">
-        <v>3449.67</v>
+        <v>14099</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>7896.95</v>
+      </c>
+      <c r="R54" s="6">
+        <v>10295.19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2">
-        <v>3403</v>
+        <v>14998</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -3868,35 +4069,23 @@
       <c r="L55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4">
-        <v>-448</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P55" s="4">
-        <v>2955</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>1836.02</v>
-      </c>
-      <c r="R55" s="7">
-        <v>2380.5</v>
+      <c r="Q55" s="5">
+        <v>10870.04</v>
+      </c>
+      <c r="R55" s="6">
+        <v>13269.72</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2">
-        <v>8989</v>
+        <v>11980</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -3917,35 +4106,23 @@
       <c r="L56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4">
-        <v>-973</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P56" s="4">
-        <v>8016</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0</v>
-      </c>
-      <c r="R56" s="7">
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2">
-        <v>11703</v>
+        <v>13700</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -3966,35 +4143,23 @@
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4">
-        <v>-707</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P57" s="4">
-        <v>10996</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>7589.21</v>
-      </c>
-      <c r="R57" s="7">
-        <v>9461.690000000001</v>
+      <c r="Q57" s="5">
+        <v>0</v>
+      </c>
+      <c r="R57" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2">
-        <v>6888</v>
+        <v>7200</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -4015,23 +4180,35 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="6">
-        <v>4412.7</v>
-      </c>
-      <c r="R58" s="7">
-        <v>5514.78</v>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
+        <v>-914</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P58" s="4">
+        <v>6286</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0</v>
+      </c>
+      <c r="R58" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D59" s="2">
-        <v>11300</v>
+        <v>7499</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -4054,31 +4231,31 @@
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4">
-        <v>-311</v>
+        <v>-424</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="P59" s="4">
-        <v>10989</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0</v>
-      </c>
-      <c r="R59" s="7">
-        <v>0</v>
+        <v>7075</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>4506.58</v>
+      </c>
+      <c r="R59" s="6">
+        <v>5706.42</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
-        <v>4995</v>
+        <v>11000</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
@@ -4101,33 +4278,33 @@
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4">
-        <v>-409</v>
+        <v>-2697</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="P60" s="4">
-        <v>4586</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>0</v>
-      </c>
-      <c r="R60" s="7">
+        <v>8303</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0</v>
+      </c>
+      <c r="R60" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2">
-        <v>3665</v>
+        <v>3288</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
@@ -4150,33 +4327,33 @@
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4">
-        <v>-216</v>
+        <v>-24</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="P61" s="4">
-        <v>3449</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>0</v>
-      </c>
-      <c r="R61" s="7">
-        <v>0</v>
+        <v>3264</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>1836.02</v>
+      </c>
+      <c r="R61" s="6">
+        <v>2362.1</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2">
-        <v>4940</v>
+        <v>4250</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -4199,33 +4376,33 @@
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4">
-        <v>-361</v>
+        <v>-333</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>26</v>
       </c>
       <c r="P62" s="4">
-        <v>4579</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>0</v>
-      </c>
-      <c r="R62" s="7">
-        <v>0</v>
+        <v>3917</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>2769.67</v>
+      </c>
+      <c r="R62" s="6">
+        <v>3449.67</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2">
-        <v>3111</v>
+        <v>3403</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -4248,31 +4425,33 @@
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4">
-        <v>-619</v>
+        <v>-453</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="P63" s="4">
-        <v>2492</v>
-      </c>
-      <c r="Q63" s="6">
+        <v>2950</v>
+      </c>
+      <c r="Q63" s="5">
         <v>1836.02</v>
       </c>
-      <c r="R63" s="7">
-        <v>2333.78</v>
+      <c r="R63" s="6">
+        <v>2380.5</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D64" s="2">
-        <v>10500</v>
+        <v>8989</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -4295,33 +4474,33 @@
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4">
-        <v>-514</v>
+        <v>-979</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P64" s="4">
-        <v>9986</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>0</v>
-      </c>
-      <c r="R64" s="7">
+        <v>8010</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0</v>
+      </c>
+      <c r="R64" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2">
-        <v>8950</v>
+        <v>11703</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -4344,31 +4523,33 @@
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4">
-        <v>-1087</v>
+        <v>-708</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="P65" s="4">
-        <v>7863</v>
-      </c>
-      <c r="Q65" s="6">
-        <v>0</v>
-      </c>
-      <c r="R65" s="7">
-        <v>0</v>
+        <v>10995</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>7589.21</v>
+      </c>
+      <c r="R65" s="6">
+        <v>9461.690000000001</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D66" s="2">
-        <v>14990</v>
+        <v>6888</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -4389,33 +4570,23 @@
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4">
-        <v>-704</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P66" s="4">
-        <v>14286</v>
-      </c>
-      <c r="Q66" s="6">
-        <v>0</v>
-      </c>
-      <c r="R66" s="7">
-        <v>0</v>
+      <c r="Q66" s="5">
+        <v>4412.7</v>
+      </c>
+      <c r="R66" s="6">
+        <v>5514.78</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -4436,23 +4607,33 @@
       <c r="L67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q67" s="6">
-        <v>0</v>
-      </c>
-      <c r="R67" s="7">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
+        <v>-314</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" s="4">
+        <v>10986</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>0</v>
+      </c>
+      <c r="R67" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2">
-        <v>12500</v>
+        <v>4995</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -4475,31 +4656,33 @@
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4">
-        <v>-951</v>
+        <v>-409</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P68" s="4">
-        <v>11549</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>0</v>
-      </c>
-      <c r="R68" s="7">
+        <v>4586</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>0</v>
+      </c>
+      <c r="R68" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D69" s="2">
-        <v>8600</v>
+        <v>3665</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
@@ -4522,33 +4705,33 @@
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4">
-        <v>-114</v>
+        <v>-216</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="P69" s="4">
-        <v>8486</v>
-      </c>
-      <c r="Q69" s="6">
-        <v>0</v>
-      </c>
-      <c r="R69" s="7">
+        <v>3449</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>0</v>
+      </c>
+      <c r="R69" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2">
-        <v>14550</v>
+        <v>4940</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -4571,31 +4754,33 @@
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4">
-        <v>-1200</v>
+        <v>-371</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="P70" s="4">
-        <v>13350</v>
-      </c>
-      <c r="Q70" s="6">
-        <v>0</v>
-      </c>
-      <c r="R70" s="7">
+        <v>4569</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>0</v>
+      </c>
+      <c r="R70" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D71" s="2">
-        <v>12900</v>
+        <v>3111</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -4618,31 +4803,31 @@
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4">
-        <v>-1051</v>
+        <v>-619</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>26</v>
       </c>
       <c r="P71" s="4">
-        <v>11849</v>
-      </c>
-      <c r="Q71" s="6">
-        <v>0</v>
-      </c>
-      <c r="R71" s="7">
-        <v>0</v>
+        <v>2492</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>1836.02</v>
+      </c>
+      <c r="R71" s="6">
+        <v>2333.78</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2">
-        <v>11600</v>
+        <v>10500</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
@@ -4665,31 +4850,33 @@
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4">
-        <v>-450</v>
+        <v>-514</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="P72" s="4">
-        <v>11150</v>
-      </c>
-      <c r="Q72" s="6">
-        <v>0</v>
-      </c>
-      <c r="R72" s="7">
+        <v>9986</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>0</v>
+      </c>
+      <c r="R72" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D73" s="2">
-        <v>6070</v>
+        <v>8950</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>20</v>
@@ -4712,33 +4899,31 @@
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4">
-        <v>-384</v>
+        <v>-1091</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="P73" s="4">
-        <v>5686</v>
-      </c>
-      <c r="Q73" s="6">
-        <v>0</v>
-      </c>
-      <c r="R73" s="7">
+        <v>7859</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>0</v>
+      </c>
+      <c r="R73" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2">
-        <v>3629</v>
+        <v>14990</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>20</v>
@@ -4759,23 +4944,33 @@
       <c r="L74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q74" s="6">
-        <v>1560.93</v>
-      </c>
-      <c r="R74" s="7">
-        <v>2141.57</v>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4">
+        <v>-704</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" s="4">
+        <v>14286</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0</v>
+      </c>
+      <c r="R74" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
-        <v>16989</v>
+        <v>12900</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>20</v>
@@ -4796,35 +4991,23 @@
       <c r="L75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4">
-        <v>-189</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="P75" s="4">
-        <v>16800</v>
-      </c>
-      <c r="Q75" s="6">
-        <v>0</v>
-      </c>
-      <c r="R75" s="7">
+      <c r="Q75" s="5">
+        <v>0</v>
+      </c>
+      <c r="R75" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2">
-        <v>7146</v>
+        <v>12500</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>20</v>
@@ -4847,31 +5030,31 @@
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4">
-        <v>-497</v>
+        <v>-951</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="P76" s="4">
-        <v>6649</v>
-      </c>
-      <c r="Q76" s="6">
-        <v>4224.92</v>
-      </c>
-      <c r="R76" s="7">
-        <v>5368.28</v>
+        <v>11549</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>0</v>
+      </c>
+      <c r="R76" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2">
-        <v>20000</v>
+        <v>8600</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>20</v>
@@ -4894,31 +5077,33 @@
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4">
-        <v>-11900</v>
+        <v>-114</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="P77" s="4">
-        <v>8100</v>
-      </c>
-      <c r="Q77" s="6">
-        <v>0</v>
-      </c>
-      <c r="R77" s="7">
+        <v>8486</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>0</v>
+      </c>
+      <c r="R77" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D78" s="2">
-        <v>20000</v>
+        <v>14550</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
@@ -4941,31 +5126,31 @@
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4">
-        <v>-11150</v>
+        <v>-1250</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="P78" s="4">
-        <v>8850</v>
-      </c>
-      <c r="Q78" s="6">
-        <v>0</v>
-      </c>
-      <c r="R78" s="7">
+        <v>13300</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>0</v>
+      </c>
+      <c r="R78" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2">
-        <v>5960</v>
+        <v>12900</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>20</v>
@@ -4986,25 +5171,33 @@
       <c r="L79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q79" s="6">
-        <v>2922.81</v>
-      </c>
-      <c r="R79" s="7">
-        <v>3876.41</v>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
+        <v>-1051</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P79" s="4">
+        <v>11849</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>0</v>
+      </c>
+      <c r="R79" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2">
-        <v>4941</v>
+        <v>11600</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>20</v>
@@ -5027,31 +5220,31 @@
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4">
-        <v>-209</v>
+        <v>-450</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="P80" s="4">
-        <v>4732</v>
-      </c>
-      <c r="Q80" s="6">
-        <v>0</v>
-      </c>
-      <c r="R80" s="7">
+        <v>11150</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0</v>
+      </c>
+      <c r="R80" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2">
-        <v>5900</v>
+        <v>6070</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>20</v>
@@ -5074,33 +5267,33 @@
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4">
-        <v>-1813</v>
+        <v>-384</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P81" s="4">
-        <v>4087</v>
-      </c>
-      <c r="Q81" s="6">
-        <v>3072.2</v>
-      </c>
-      <c r="R81" s="7">
-        <v>4016.2</v>
+        <v>5686</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>0</v>
+      </c>
+      <c r="R81" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D82" s="2">
-        <v>7884</v>
+        <v>3629</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>20</v>
@@ -5121,35 +5314,23 @@
       <c r="L82" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4">
-        <v>-158</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P82" s="4">
-        <v>7726</v>
-      </c>
-      <c r="Q82" s="6">
-        <v>0</v>
-      </c>
-      <c r="R82" s="7">
-        <v>0</v>
+      <c r="Q82" s="5">
+        <v>1560.93</v>
+      </c>
+      <c r="R82" s="6">
+        <v>2141.57</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" s="2">
-        <v>11600</v>
+        <v>16989</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>20</v>
@@ -5172,33 +5353,33 @@
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4">
-        <v>-113</v>
+        <v>-189</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="P83" s="4">
-        <v>11487</v>
-      </c>
-      <c r="Q83" s="6">
-        <v>0</v>
-      </c>
-      <c r="R83" s="7">
+        <v>16800</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>0</v>
+      </c>
+      <c r="R83" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D84" s="2">
-        <v>25279</v>
+        <v>7146</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>20</v>
@@ -5219,25 +5400,33 @@
       <c r="L84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q84" s="6">
-        <v>16007.68</v>
-      </c>
-      <c r="R84" s="7">
-        <v>20052.32</v>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4">
+        <v>-501</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" s="4">
+        <v>6645</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>4224.92</v>
+      </c>
+      <c r="R84" s="6">
+        <v>5368.28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" s="2">
-        <v>9254</v>
+        <v>20000</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>20</v>
@@ -5258,25 +5447,33 @@
       <c r="L85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q85" s="6">
-        <v>5883.59</v>
-      </c>
-      <c r="R85" s="7">
-        <v>7364.23</v>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4">
+        <v>-11900</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P85" s="4">
+        <v>8100</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>0</v>
+      </c>
+      <c r="R85" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" s="2">
-        <v>9700</v>
+        <v>20000</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>20</v>
@@ -5299,31 +5496,31 @@
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4">
-        <v>-303</v>
+        <v>-11151</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="P86" s="4">
-        <v>9397</v>
-      </c>
-      <c r="Q86" s="6">
-        <v>0</v>
-      </c>
-      <c r="R86" s="7">
+        <v>8849</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0</v>
+      </c>
+      <c r="R86" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2">
-        <v>13199</v>
+        <v>5960</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>20</v>
@@ -5344,35 +5541,25 @@
       <c r="L87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4">
-        <v>-324</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P87" s="4">
-        <v>12875</v>
-      </c>
-      <c r="Q87" s="6">
-        <v>0</v>
-      </c>
-      <c r="R87" s="7">
-        <v>0</v>
+      <c r="Q87" s="5">
+        <v>2922.81</v>
+      </c>
+      <c r="R87" s="6">
+        <v>3876.41</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2">
-        <v>6784</v>
+        <v>4941</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>20</v>
@@ -5395,33 +5582,31 @@
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4">
-        <v>-123</v>
+        <v>-211</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="P88" s="4">
-        <v>6661</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>0</v>
-      </c>
-      <c r="R88" s="7">
+        <v>4730</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0</v>
+      </c>
+      <c r="R88" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="2">
-        <v>4199</v>
+        <v>5900</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>20</v>
@@ -5444,33 +5629,33 @@
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4">
-        <v>-946</v>
+        <v>-1820</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="P89" s="4">
-        <v>3253</v>
-      </c>
-      <c r="Q89" s="6">
-        <v>2191.28</v>
-      </c>
-      <c r="R89" s="7">
-        <v>2863.12</v>
+        <v>4080</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>3072.2</v>
+      </c>
+      <c r="R89" s="6">
+        <v>4016.2</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D90" s="2">
-        <v>22145</v>
+        <v>7884</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>20</v>
@@ -5491,25 +5676,35 @@
       <c r="L90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q90" s="6">
-        <v>0</v>
-      </c>
-      <c r="R90" s="7">
+      <c r="M90" s="4"/>
+      <c r="N90" s="4">
+        <v>-167</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" s="4">
+        <v>7717</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0</v>
+      </c>
+      <c r="R90" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2">
-        <v>3300</v>
+        <v>11600</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>20</v>
@@ -5532,33 +5727,33 @@
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4">
-        <v>-1021</v>
+        <v>-113</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="P91" s="4">
-        <v>2279</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>1564.79</v>
-      </c>
-      <c r="R91" s="7">
-        <v>2092.79</v>
+        <v>11487</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>0</v>
+      </c>
+      <c r="R91" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2">
-        <v>5999</v>
+        <v>25277</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>20</v>
@@ -5579,35 +5774,37 @@
       <c r="L92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4">
-        <v>-1077</v>
+      <c r="M92" s="4">
+        <v>25279</v>
+      </c>
+      <c r="N92" s="7">
+        <v>-1</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P92" s="4">
-        <v>4922</v>
-      </c>
-      <c r="Q92" s="6">
-        <v>4381.4</v>
-      </c>
-      <c r="R92" s="7">
-        <v>5341.24</v>
+        <v>25278</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>16007.68</v>
+      </c>
+      <c r="R92" s="6">
+        <v>20052.32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="D93" s="2">
-        <v>6274</v>
+        <v>9254</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>20</v>
@@ -5628,35 +5825,25 @@
       <c r="L93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4">
-        <v>-81</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P93" s="4">
-        <v>6193</v>
-      </c>
-      <c r="Q93" s="6">
-        <v>0</v>
-      </c>
-      <c r="R93" s="7">
-        <v>0</v>
+      <c r="Q93" s="5">
+        <v>5883.59</v>
+      </c>
+      <c r="R93" s="6">
+        <v>7364.23</v>
       </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D94" s="2">
-        <v>3980</v>
+        <v>9700</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>20</v>
@@ -5679,33 +5866,31 @@
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4">
-        <v>-630</v>
+        <v>-303</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="P94" s="4">
-        <v>3350</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>0</v>
-      </c>
-      <c r="R94" s="7">
+        <v>9397</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>0</v>
+      </c>
+      <c r="R94" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" s="2">
-        <v>7228</v>
+        <v>13199</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>20</v>
@@ -5728,33 +5913,33 @@
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4">
-        <v>-975</v>
+        <v>-326</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="P95" s="4">
-        <v>6253</v>
-      </c>
-      <c r="Q95" s="6">
-        <v>4965.59</v>
-      </c>
-      <c r="R95" s="7">
-        <v>6122.07</v>
+        <v>12873</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>0</v>
+      </c>
+      <c r="R95" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="D96" s="2">
-        <v>3300</v>
+        <v>6784</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>20</v>
@@ -5777,33 +5962,33 @@
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4">
-        <v>-763</v>
+        <v>-125</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P96" s="4">
-        <v>2537</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>1669.1</v>
-      </c>
-      <c r="R96" s="7">
-        <v>2197.1</v>
+        <v>6659</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>0</v>
+      </c>
+      <c r="R96" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D97" s="2">
-        <v>2700</v>
+        <v>4199</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>20</v>
@@ -5826,31 +6011,33 @@
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4">
-        <v>-862</v>
+        <v>-947</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P97" s="4">
-        <v>1838</v>
-      </c>
-      <c r="Q97" s="6">
-        <v>838.08</v>
-      </c>
-      <c r="R97" s="7">
-        <v>1270.08</v>
+        <v>3252</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>2191.28</v>
+      </c>
+      <c r="R97" s="6">
+        <v>2863.12</v>
       </c>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D98" s="2">
-        <v>9200</v>
+        <v>22145</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>20</v>
@@ -5871,33 +6058,25 @@
       <c r="L98" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4">
-        <v>-872</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P98" s="4">
-        <v>8328</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>0</v>
-      </c>
-      <c r="R98" s="7">
+      <c r="Q98" s="5">
+        <v>0</v>
+      </c>
+      <c r="R98" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D99" s="2">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>20</v>
@@ -5920,31 +6099,33 @@
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4">
-        <v>-1384</v>
+        <v>-1023</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P99" s="4">
-        <v>2116</v>
-      </c>
-      <c r="Q99" s="6">
-        <v>1251.83</v>
-      </c>
-      <c r="R99" s="7">
-        <v>1811.83</v>
+        <v>2277</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>1564.79</v>
+      </c>
+      <c r="R99" s="6">
+        <v>2092.79</v>
       </c>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D100" s="2">
-        <v>2500</v>
+        <v>5999</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>20</v>
@@ -5967,31 +6148,33 @@
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4">
-        <v>-1023</v>
+        <v>-1079</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="P100" s="4">
-        <v>1477</v>
-      </c>
-      <c r="Q100" s="6">
-        <v>1069.27</v>
-      </c>
-      <c r="R100" s="7">
-        <v>1469.27</v>
+        <v>4920</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>4381.4</v>
+      </c>
+      <c r="R100" s="6">
+        <v>5341.24</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D101" s="2">
-        <v>3887</v>
+        <v>6274</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>20</v>
@@ -6014,31 +6197,33 @@
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4">
-        <v>-438</v>
+        <v>-82</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P101" s="4">
-        <v>3449</v>
-      </c>
-      <c r="Q101" s="6">
-        <v>2816.61</v>
-      </c>
-      <c r="R101" s="7">
-        <v>3438.53</v>
+        <v>6192</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>0</v>
+      </c>
+      <c r="R101" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D102" s="2">
-        <v>5769</v>
+        <v>3980</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>20</v>
@@ -6061,33 +6246,33 @@
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4">
-        <v>-292</v>
+        <v>-630</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="P102" s="4">
-        <v>5477</v>
-      </c>
-      <c r="Q102" s="6">
-        <v>0</v>
-      </c>
-      <c r="R102" s="7">
+        <v>3350</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>0</v>
+      </c>
+      <c r="R102" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D103" s="2">
-        <v>3980</v>
+        <v>7228</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>20</v>
@@ -6110,31 +6295,33 @@
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4">
-        <v>-446</v>
+        <v>-988</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="P103" s="4">
-        <v>3534</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>0</v>
-      </c>
-      <c r="R103" s="7">
-        <v>0</v>
+        <v>6240</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>4965.59</v>
+      </c>
+      <c r="R103" s="6">
+        <v>6122.07</v>
       </c>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D104" s="2">
-        <v>12050</v>
+        <v>3300</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>20</v>
@@ -6157,33 +6344,33 @@
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4">
-        <v>-3750</v>
+        <v>-771</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="P104" s="4">
-        <v>8300</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>0</v>
-      </c>
-      <c r="R104" s="7">
-        <v>0</v>
+        <v>2529</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>1669.1</v>
+      </c>
+      <c r="R104" s="6">
+        <v>2197.1</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D105" s="2">
-        <v>7326</v>
+        <v>2700</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>20</v>
@@ -6206,31 +6393,31 @@
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4">
-        <v>-185</v>
+        <v>-862</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="P105" s="4">
-        <v>7141</v>
-      </c>
-      <c r="Q105" s="6">
-        <v>0</v>
-      </c>
-      <c r="R105" s="7">
-        <v>0</v>
+        <v>1838</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>838.08</v>
+      </c>
+      <c r="R105" s="6">
+        <v>1270.08</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2">
-        <v>9242</v>
+        <v>9200</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>20</v>
@@ -6253,31 +6440,31 @@
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4">
-        <v>-282</v>
+        <v>-875</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="P106" s="4">
-        <v>8960</v>
-      </c>
-      <c r="Q106" s="6">
-        <v>0</v>
-      </c>
-      <c r="R106" s="7">
+        <v>8325</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>0</v>
+      </c>
+      <c r="R106" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2">
-        <v>10729</v>
+        <v>3500</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>20</v>
@@ -6298,23 +6485,33 @@
       <c r="L107" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q107" s="6">
-        <v>4908.21</v>
-      </c>
-      <c r="R107" s="7">
-        <v>6624.85</v>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4">
+        <v>-1386</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P107" s="4">
+        <v>2114</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>1251.83</v>
+      </c>
+      <c r="R107" s="6">
+        <v>1811.83</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>20</v>
@@ -6337,31 +6534,31 @@
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4">
-        <v>-1004</v>
+        <v>-1025</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P108" s="4">
-        <v>6996</v>
-      </c>
-      <c r="Q108" s="6">
-        <v>4736.08</v>
-      </c>
-      <c r="R108" s="7">
-        <v>6016.08</v>
+        <v>1475</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>1069.27</v>
+      </c>
+      <c r="R108" s="6">
+        <v>1469.27</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2">
-        <v>21900</v>
+        <v>3887</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>20</v>
@@ -6382,23 +6579,33 @@
       <c r="L109" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q109" s="6">
-        <v>10339.84</v>
-      </c>
-      <c r="R109" s="7">
-        <v>13843.84</v>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4">
+        <v>-438</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P109" s="4">
+        <v>3449</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>2816.61</v>
+      </c>
+      <c r="R109" s="6">
+        <v>3438.53</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2">
-        <v>4260</v>
+        <v>5769</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>20</v>
@@ -6421,31 +6628,33 @@
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4">
-        <v>-1961</v>
+        <v>-292</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="P110" s="4">
-        <v>2299</v>
-      </c>
-      <c r="Q110" s="6">
-        <v>2845.22</v>
-      </c>
-      <c r="R110" s="7">
-        <v>3526.82</v>
+        <v>5477</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>0</v>
+      </c>
+      <c r="R110" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D111" s="2">
-        <v>8300</v>
+        <v>3980</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>20</v>
@@ -6468,31 +6677,31 @@
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4">
-        <v>-536</v>
+        <v>-445</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="P111" s="4">
-        <v>7764</v>
-      </c>
-      <c r="Q111" s="6">
-        <v>0</v>
-      </c>
-      <c r="R111" s="7">
+        <v>3535</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>0</v>
+      </c>
+      <c r="R111" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2">
-        <v>7000</v>
+        <v>12050</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>20</v>
@@ -6515,33 +6724,33 @@
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4">
-        <v>-501</v>
+        <v>-3750</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="P112" s="4">
-        <v>6499</v>
-      </c>
-      <c r="Q112" s="6">
-        <v>0</v>
-      </c>
-      <c r="R112" s="7">
+        <v>8300</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>0</v>
+      </c>
+      <c r="R112" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D113" s="2">
-        <v>4199</v>
+        <v>7326</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>20</v>
@@ -6564,31 +6773,31 @@
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4">
-        <v>-737</v>
+        <v>-190</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="P113" s="4">
-        <v>3462</v>
-      </c>
-      <c r="Q113" s="6">
-        <v>0</v>
-      </c>
-      <c r="R113" s="7">
+        <v>7136</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>0</v>
+      </c>
+      <c r="R113" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2">
-        <v>19250</v>
+        <v>9242</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>20</v>
@@ -6609,23 +6818,33 @@
       <c r="L114" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q114" s="6">
-        <v>8382.030000000001</v>
-      </c>
-      <c r="R114" s="7">
-        <v>11462.03</v>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4">
+        <v>-283</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P114" s="4">
+        <v>8959</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>0</v>
+      </c>
+      <c r="R114" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2">
-        <v>3796</v>
+        <v>10729</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>20</v>
@@ -6646,20 +6865,319 @@
       <c r="L115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4">
+      <c r="Q115" s="5">
+        <v>4908.21</v>
+      </c>
+      <c r="R115" s="6">
+        <v>6624.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="L116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4">
+        <v>-1005</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P116" s="4">
+        <v>6995</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>4736.08</v>
+      </c>
+      <c r="R116" s="6">
+        <v>6016.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2">
+        <v>21900</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="L117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>10339.84</v>
+      </c>
+      <c r="R117" s="6">
+        <v>13843.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2">
+        <v>4260</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="L118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4">
+        <v>-1961</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P118" s="4">
+        <v>2299</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>2845.22</v>
+      </c>
+      <c r="R118" s="6">
+        <v>3526.82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <v>8300</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="L119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4">
+        <v>-536</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="P119" s="4">
+        <v>7764</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>0</v>
+      </c>
+      <c r="R119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="L120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4">
+        <v>-501</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P120" s="4">
+        <v>6499</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>0</v>
+      </c>
+      <c r="R120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2">
+        <v>19250</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="L121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>8382.030000000001</v>
+      </c>
+      <c r="R121" s="6">
+        <v>11462.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2">
+        <v>3796</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="L122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4">
         <v>-1106</v>
       </c>
-      <c r="O115" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="P115" s="4">
+      <c r="O122" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="P122" s="4">
         <v>2690</v>
       </c>
-      <c r="Q115" s="6">
+      <c r="Q122" s="5">
         <v>1669.1</v>
       </c>
-      <c r="R115" s="7">
+      <c r="R122" s="6">
         <v>2276.46</v>
       </c>
     </row>
@@ -6779,6 +7297,13 @@
     <hyperlink ref="L113" r:id="rId112"/>
     <hyperlink ref="L114" r:id="rId113"/>
     <hyperlink ref="L115" r:id="rId114"/>
+    <hyperlink ref="L116" r:id="rId115"/>
+    <hyperlink ref="L117" r:id="rId116"/>
+    <hyperlink ref="L118" r:id="rId117"/>
+    <hyperlink ref="L119" r:id="rId118"/>
+    <hyperlink ref="L120" r:id="rId119"/>
+    <hyperlink ref="L121" r:id="rId120"/>
+    <hyperlink ref="L122" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6798,10 +7323,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6809,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6817,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6825,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6833,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6841,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6849,7 +7374,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6857,7 +7382,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6865,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6873,7 +7398,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFormatTemplate.xlsx
+++ b/ExcelFormatTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="317">
   <si>
     <t>SKU</t>
   </si>
@@ -68,6 +68,189 @@
     <t>+ 16%</t>
   </si>
   <si>
+    <t>104359579_4725004</t>
+  </si>
+  <si>
+    <t>NaturesPlus БАД Animal Parade Kid Zinc 90 леденцов</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Vitamins Organic</t>
+  </si>
+  <si>
+    <t>104715331_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition рыбий жир Omega 3 Premium Fish Oil 180 mg EPA/120 mg DHA 100 капсул</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition</t>
+  </si>
+  <si>
+    <t>Iherbkst</t>
+  </si>
+  <si>
+    <t>SAN84012</t>
+  </si>
+  <si>
+    <t>Nature's Plus минерал Source of Life Animal Parade Kid Zinc 90 животных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature's Plus </t>
+  </si>
+  <si>
+    <t>104385811_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик Lactobif, Cran-Max 30 капсул</t>
+  </si>
+  <si>
+    <t>Iherb Organics</t>
+  </si>
+  <si>
+    <t>103562539_4725004</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Womens Premium Gummies 75 таблеток</t>
+  </si>
+  <si>
+    <t>101181101_4725004</t>
+  </si>
+  <si>
+    <t>NOW Spirulina 1000 мг №120</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Dreamy</t>
+  </si>
+  <si>
+    <t>101119224_4725004</t>
+  </si>
+  <si>
+    <t>Витамин Д3 2000МЕ 360 капсул</t>
+  </si>
+  <si>
+    <t>BARWORK</t>
+  </si>
+  <si>
+    <t>SAN83931</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик LactoBif Probiotics 60 капсул</t>
+  </si>
+  <si>
+    <t>ALP ASTANA</t>
+  </si>
+  <si>
+    <t>SAN83962</t>
+  </si>
+  <si>
+    <t>Nature's Plus омега жирные кислоты Source of Life Animal Parade Omega 3/6/9 90 таблеток</t>
+  </si>
+  <si>
+    <t>SAN84017</t>
+  </si>
+  <si>
+    <t>Nature's Plus мультивитамины Animal Parade Gold вишня 60 таблеток</t>
+  </si>
+  <si>
+    <t>Liquidator kz</t>
+  </si>
+  <si>
+    <t>104817178_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик LactoBif Probiotics, 100 Billion CFU 30 капсул</t>
+  </si>
+  <si>
+    <t>iHealth</t>
+  </si>
+  <si>
+    <t>SAN24</t>
+  </si>
+  <si>
+    <t>NOW омега жирные кислоты Ultra Omega 3-D 180 капсул</t>
+  </si>
+  <si>
+    <t>103737484_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 25 мкг 1000 МЕ 360 капсул</t>
+  </si>
+  <si>
+    <t>SAN0939547</t>
+  </si>
+  <si>
+    <t>БАД Nutribiotic Sodium Ascorbate 250 капсул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NutriBiotic </t>
+  </si>
+  <si>
+    <t>SAN0939483</t>
+  </si>
+  <si>
+    <t>Витамины Solgar Chelated Iron 100 таблеток</t>
+  </si>
+  <si>
+    <t>Solgar</t>
+  </si>
+  <si>
+    <t>101611432_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition пробиотик LactoBif 100 Probiotics 30 капсул</t>
+  </si>
+  <si>
+    <t>SAN1</t>
+  </si>
+  <si>
+    <t>Fairhaven Health Nursing Postnatal 60 капсул</t>
+  </si>
+  <si>
+    <t>Fairhaven Health</t>
+  </si>
+  <si>
+    <t>SAN02</t>
+  </si>
+  <si>
+    <t>Nature's Way БАД Chlorofresh Жидкий Хлорофилл 132 мг 473,2 мл</t>
+  </si>
+  <si>
+    <t>Nature's Way</t>
+  </si>
+  <si>
+    <t>SAN0939485</t>
+  </si>
+  <si>
+    <t>БАД NOW Iron Double Strength 90 капсул</t>
+  </si>
+  <si>
+    <t>My_Herb</t>
+  </si>
+  <si>
+    <t>SAN83922</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Астаксантин 30 капсул</t>
+  </si>
+  <si>
+    <t>organickz</t>
+  </si>
+  <si>
+    <t>SAN83951</t>
+  </si>
+  <si>
+    <t>Solgar витамин Vitamin D3 125 mcg 5000 IU 100 капсул</t>
+  </si>
+  <si>
     <t>SAN83964</t>
   </si>
   <si>
@@ -77,12 +260,6 @@
     <t>Jarrow Formulas</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>XS Market</t>
   </si>
   <si>
@@ -92,750 +269,570 @@
     <t>NOW БАД Selenium 100 mcg 100 таблеток</t>
   </si>
   <si>
-    <t>Now</t>
-  </si>
-  <si>
     <t>Кот маркет</t>
   </si>
   <si>
+    <t>SAN83995</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive! Kid's Chewable Multivitamin Orange &amp; Berry 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN83999</t>
+  </si>
+  <si>
+    <t>NOW Liquid витамин D3 400 МЕ 59 мл</t>
+  </si>
+  <si>
+    <t>SAN84000</t>
+  </si>
+  <si>
+    <t>NOW Spirulina 1000 мг 120 таблеток</t>
+  </si>
+  <si>
+    <t>Экономь</t>
+  </si>
+  <si>
+    <t>SAN84032</t>
+  </si>
+  <si>
+    <t>Life Extension мультивитамины Two-Per-Day 120 таблеток</t>
+  </si>
+  <si>
+    <t>Life Extension</t>
+  </si>
+  <si>
+    <t>SAN939685</t>
+  </si>
+  <si>
+    <t>Solgar Magnesium with Vitamin B6 250 таблеток</t>
+  </si>
+  <si>
+    <t>Minoxidil shop</t>
+  </si>
+  <si>
+    <t>SAN939730</t>
+  </si>
+  <si>
+    <t>Jarrow Formulas Метилфолат 400 мкг 60 капсул</t>
+  </si>
+  <si>
+    <t>Iherb shop krg</t>
+  </si>
+  <si>
+    <t>SAN939765</t>
+  </si>
+  <si>
+    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 60 таблеток</t>
+  </si>
+  <si>
+    <t>ИП НАКУБОВА</t>
+  </si>
+  <si>
+    <t>100626938_4725004</t>
+  </si>
+  <si>
+    <t>NOW Chlorophyll 100 мг 90 капсул</t>
+  </si>
+  <si>
+    <t>100904548_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин Biotin 5000 mcg 120 капсул</t>
+  </si>
+  <si>
+    <t>Магазин здоровья Health and Hair</t>
+  </si>
+  <si>
+    <t>100907783_4725004</t>
+  </si>
+  <si>
+    <t>NOW Vitamin D-3 1000 IU 360 капсул</t>
+  </si>
+  <si>
+    <t>Healthy wealthy</t>
+  </si>
+  <si>
+    <t>100912861_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Zinc Picolinate 22 мг таблетки 100 шт</t>
+  </si>
+  <si>
+    <t>HAPPY KEREY</t>
+  </si>
+  <si>
     <t>102026527_4725004</t>
   </si>
   <si>
     <t>NOW Inulin Prebiotic Pure Powder 227 гр</t>
   </si>
   <si>
+    <t>102311888_4725004</t>
+  </si>
+  <si>
+    <t>Solgar минерал Хелат Железа 100 таблеток</t>
+  </si>
+  <si>
+    <t>103055610_4725004</t>
+  </si>
+  <si>
+    <t>Now Kid-Cal Chewable Calcium 100 капсул</t>
+  </si>
+  <si>
+    <t>103246026_4725004</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive Womens Gummy 130 капсул</t>
+  </si>
+  <si>
+    <t>Ayashka shop</t>
+  </si>
+  <si>
+    <t>103721404_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition БАД Astaxanthin 12 mg 30 капсул</t>
+  </si>
+  <si>
+    <t>104166090_4725004</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive! Men's Ultra Potency Complete Multivitamin 60 таблеток</t>
+  </si>
+  <si>
+    <t>104327534_4725004</t>
+  </si>
+  <si>
+    <t>Garden of Life витамин Vitamin Code Raw Zinc 60 капсул</t>
+  </si>
+  <si>
+    <t>Garden of Life</t>
+  </si>
+  <si>
+    <t>108665846_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition, LactoBif, пробиотики, 5 млрд КОЕ, 10 растительных капсул</t>
+  </si>
+  <si>
+    <t>My Help</t>
+  </si>
+  <si>
+    <t>29502959_4725004</t>
+  </si>
+  <si>
+    <t>NOW Витамин для мужчин Adam Men's Multi 90 капсул</t>
+  </si>
+  <si>
     <t>29502760_4725004</t>
   </si>
   <si>
     <t>NOW омега жирные кислоты Omega-3 200 капсул</t>
   </si>
   <si>
-    <t>Body Energy</t>
-  </si>
-  <si>
-    <t>100904548_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин Biotin 5000 mcg 120 капсул</t>
-  </si>
-  <si>
-    <t>Магазин здоровья Health and Hair</t>
-  </si>
-  <si>
-    <t>101181101_4725004</t>
-  </si>
-  <si>
-    <t>NOW Spirulina 1000 мг №120</t>
-  </si>
-  <si>
-    <t>Dreamy</t>
-  </si>
-  <si>
-    <t>104327534_4725004</t>
-  </si>
-  <si>
-    <t>Garden of Life витамин Vitamin Code Raw Zinc 60 капсул</t>
-  </si>
-  <si>
-    <t>Garden of Life</t>
-  </si>
-  <si>
-    <t>iHealth</t>
-  </si>
-  <si>
-    <t>SAN84032</t>
-  </si>
-  <si>
-    <t>Life Extension мультивитамины Two-Per-Day 120 таблеток</t>
-  </si>
-  <si>
-    <t>Life Extension</t>
+    <t>VitaMama</t>
+  </si>
+  <si>
+    <t>100729763_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Selenium 100 mcg таблетки 100 шт</t>
+  </si>
+  <si>
+    <t>102427689_4725004</t>
+  </si>
+  <si>
+    <t>NOW Vitamin B12 5000 mcg + FOLIC ACID №60 капсул</t>
+  </si>
+  <si>
+    <t>ЦЕНТР СПОРТ ПИТАНИЯ</t>
+  </si>
+  <si>
+    <t>SAN0506</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition БАД Астаксантин 12 мг 120 капсул</t>
+  </si>
+  <si>
+    <t>101193682_4725004</t>
+  </si>
+  <si>
+    <t>Solgar БАД Biotin 10000 mcg 120 капсул</t>
+  </si>
+  <si>
+    <t>107175564_4725004</t>
+  </si>
+  <si>
+    <t>NOW C-500+Calcium 100 таблеток</t>
+  </si>
+  <si>
+    <t>SAN84001</t>
+  </si>
+  <si>
+    <t>NutriBiotic витамин Sodium Ascorbate 227 г</t>
+  </si>
+  <si>
+    <t>Siveys</t>
+  </si>
+  <si>
+    <t>SAN9878</t>
+  </si>
+  <si>
+    <t>NOW витамин Vitamin D-3 10 000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>1GeneticShop</t>
+  </si>
+  <si>
+    <t>103465071_4725004</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition БАД набор Омега 3 и D3 290 капсул</t>
+  </si>
+  <si>
+    <t>103874453_4725004</t>
+  </si>
+  <si>
+    <t>Solgar омега жирные кислоты Evening Primrose Oil 1300 мг 60 капсул</t>
+  </si>
+  <si>
+    <t>105258317_4725004</t>
+  </si>
+  <si>
+    <t>Life-flo минерал Life-flo, Liquid Iodine Plus 59 мл</t>
+  </si>
+  <si>
+    <t>WHEY-KZ</t>
+  </si>
+  <si>
+    <t>SAN939704</t>
+  </si>
+  <si>
+    <t>Solgar Omega 3 950 мг 50 капсул</t>
+  </si>
+  <si>
+    <t>104296427_4725004</t>
+  </si>
+  <si>
+    <t>ChildLife Organic Gripe Water kids раствор 59.15 мл</t>
+  </si>
+  <si>
+    <t>104296405_4725004</t>
+  </si>
+  <si>
+    <t>ChildLife Organic Vitamin D3 раствор 10 мл</t>
+  </si>
+  <si>
+    <t>100800962_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 и K2 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN939654</t>
+  </si>
+  <si>
+    <t>Витамины NOW Zinc Picolinate 50 мг 120 капсул</t>
+  </si>
+  <si>
+    <t>NUTRIFITPVL</t>
+  </si>
+  <si>
+    <t>102491637_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Цитрат Магния 60 таблеток</t>
+  </si>
+  <si>
+    <t>Smart Аптека</t>
+  </si>
+  <si>
+    <t>SAN093076</t>
+  </si>
+  <si>
+    <t>БАД Now Foods Витамин D3 25 мкг 1000 МЕ №180</t>
+  </si>
+  <si>
+    <t>SAN84006</t>
+  </si>
+  <si>
+    <t>NOW БАД Vitamin D-3 5000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN84024</t>
+  </si>
+  <si>
+    <t>NOW витамин D-3 1000 IU 180 капсул</t>
+  </si>
+  <si>
+    <t>SAN939630</t>
+  </si>
+  <si>
+    <t>БАД NOW L-Tyrosine 500 мг 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN939641</t>
+  </si>
+  <si>
+    <t>NOW Sunflower Lecithin 1200 мг 200 капсул</t>
   </si>
   <si>
     <t>Phoenix Nutrition</t>
   </si>
   <si>
-    <t>SAN939730</t>
-  </si>
-  <si>
-    <t>Jarrow Formulas Метилфолат 400 мкг 60 капсул</t>
-  </si>
-  <si>
-    <t>SAN84000</t>
-  </si>
-  <si>
-    <t>NOW Spirulina 1000 мг 120 таблеток</t>
-  </si>
-  <si>
-    <t>Экономь</t>
-  </si>
-  <si>
-    <t>SAN0939485</t>
-  </si>
-  <si>
-    <t>БАД NOW Iron Double Strength 90 капсул</t>
-  </si>
-  <si>
-    <t>My_Herb</t>
-  </si>
-  <si>
-    <t>100729763_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Selenium 100 mcg таблетки 100 шт</t>
-  </si>
-  <si>
-    <t>104715331_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition рыбий жир Omega 3 Premium Fish Oil 180 mg EPA/120 mg DHA 100 капсул</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition</t>
-  </si>
-  <si>
-    <t>KZ COMPANY</t>
-  </si>
-  <si>
-    <t>102427689_4725004</t>
-  </si>
-  <si>
-    <t>NOW Vitamin B12 5000 mcg + FOLIC ACID №60 капсул</t>
-  </si>
-  <si>
-    <t>ЦЕНТР СПОРТ ПИТАНИЯ</t>
-  </si>
-  <si>
-    <t>103737484_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 25 мкг 1000 МЕ 360 капсул</t>
-  </si>
-  <si>
-    <t>Iherb Organics</t>
-  </si>
-  <si>
-    <t>SAN0939483</t>
-  </si>
-  <si>
-    <t>Витамины Solgar Chelated Iron 100 таблеток</t>
-  </si>
-  <si>
-    <t>Solgar</t>
-  </si>
-  <si>
-    <t>101611432_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик LactoBif 100 Probiotics 30 капсул</t>
-  </si>
-  <si>
-    <t>SAN84017</t>
-  </si>
-  <si>
-    <t>Nature's Plus мультивитамины Animal Parade Gold вишня 60 таблеток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature's Plus </t>
-  </si>
-  <si>
-    <t>103562539_4725004</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Womens Premium Gummies 75 таблеток</t>
-  </si>
-  <si>
-    <t>104385811_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик Lactobif, Cran-Max 30 капсул</t>
-  </si>
-  <si>
-    <t>101119224_4725004</t>
-  </si>
-  <si>
-    <t>Витамин Д3 2000МЕ 360 капсул</t>
-  </si>
-  <si>
-    <t>SAN84012</t>
-  </si>
-  <si>
-    <t>Nature's Plus минерал Source of Life Animal Parade Kid Zinc 90 животных</t>
-  </si>
-  <si>
-    <t>SAN1</t>
-  </si>
-  <si>
-    <t>Fairhaven Health Nursing Postnatal 60 капсул</t>
-  </si>
-  <si>
-    <t>Fairhaven Health</t>
-  </si>
-  <si>
-    <t>SAN83951</t>
-  </si>
-  <si>
-    <t>Solgar витамин Vitamin D3 125 mcg 5000 IU 100 капсул</t>
+    <t>100904544_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best БАД Collagen Types 1 and 3 with vitamin C 1000 mg 180 таблеток</t>
+  </si>
+  <si>
+    <t>100911728_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best витамин Vitamin D3 125 mcg 5000 IU 180 капсул</t>
+  </si>
+  <si>
+    <t>103355042_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин A 10000 ME 100 капсул</t>
+  </si>
+  <si>
+    <t>Vital Service</t>
+  </si>
+  <si>
+    <t>103729797_4725004</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 1000 МЕ 180 капсул</t>
+  </si>
+  <si>
+    <t>104884228_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best Магний с высокой степенью усвоения таблетки 120 шт</t>
+  </si>
+  <si>
+    <t>SAN84034</t>
+  </si>
+  <si>
+    <t>NOW БАД D-3 5000 IU 240 капсул</t>
+  </si>
+  <si>
+    <t>101873686_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best минерал High Absorption Magnesium 100 mg 240 таблеток</t>
+  </si>
+  <si>
+    <t>106773931_4725004</t>
+  </si>
+  <si>
+    <t>Solgar Omega 3 Fish Oil Concentrate</t>
+  </si>
+  <si>
+    <t>102346092_4725004</t>
+  </si>
+  <si>
+    <t>Solgar БАД Концентрат рыбьего жира Омега-3 120 капсул</t>
+  </si>
+  <si>
+    <t>B13shop_kz</t>
+  </si>
+  <si>
+    <t>104399287_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best Магний с высокой степенью усвоения 100 мг 120 таблеток</t>
+  </si>
+  <si>
+    <t>BADVKZ</t>
+  </si>
+  <si>
+    <t>SAN93977171</t>
+  </si>
+  <si>
+    <t>Solgar Ester-C Plus Витамин C 500 MG 100 капсул</t>
   </si>
   <si>
     <t>Jefferson System</t>
   </si>
   <si>
-    <t>103721404_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition БАД Astaxanthin 12 mg 30 капсул</t>
-  </si>
-  <si>
-    <t>organickz</t>
-  </si>
-  <si>
-    <t>104817178_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик LactoBif Probiotics, 100 Billion CFU 30 капсул</t>
-  </si>
-  <si>
-    <t>100907783_4725004</t>
-  </si>
-  <si>
-    <t>NOW Vitamin D-3 1000 IU 360 капсул</t>
-  </si>
-  <si>
-    <t>Healthy wealthy</t>
-  </si>
-  <si>
-    <t>SAN02</t>
-  </si>
-  <si>
-    <t>Nature's Way БАД Chlorofresh Жидкий Хлорофилл 132 мг 473,2 мл</t>
-  </si>
-  <si>
-    <t>Nature's Way</t>
-  </si>
-  <si>
-    <t>SAN0506</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition БАД Астаксантин 12 мг 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN83995</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Alive! Kid's Chewable Multivitamin Orange &amp; Berry 120 капсул</t>
-  </si>
-  <si>
-    <t>100912861_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Zinc Picolinate 22 мг таблетки 100 шт</t>
-  </si>
-  <si>
-    <t>101193682_4725004</t>
-  </si>
-  <si>
-    <t>Solgar БАД Biotin 10000 mcg 120 капсул</t>
-  </si>
-  <si>
-    <t>103055610_4725004</t>
-  </si>
-  <si>
-    <t>Now Kid-Cal Chewable Calcium 100 капсул</t>
-  </si>
-  <si>
-    <t>107175564_4725004</t>
-  </si>
-  <si>
-    <t>NOW C-500+Calcium 100 таблеток</t>
-  </si>
-  <si>
-    <t>SAN0939547</t>
-  </si>
-  <si>
-    <t>БАД Nutribiotic Sodium Ascorbate 250 капсул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NutriBiotic </t>
-  </si>
-  <si>
-    <t>SAN83922</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Астаксантин 30 капсул</t>
-  </si>
-  <si>
-    <t>IherbStore</t>
-  </si>
-  <si>
-    <t>SAN83931</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition пробиотик LactoBif Probiotics 60 капсул</t>
-  </si>
-  <si>
-    <t>SAN83962</t>
-  </si>
-  <si>
-    <t>Nature's Plus омега жирные кислоты Source of Life Animal Parade Omega 3/6/9 90 таблеток</t>
-  </si>
-  <si>
-    <t>SAN83968</t>
-  </si>
-  <si>
-    <t>Nature's Plus Hema-Plex 60 жевательных капсул с ягодным вкусом</t>
-  </si>
-  <si>
-    <t>SAN83999</t>
-  </si>
-  <si>
-    <t>NOW Liquid витамин D3 400 МЕ 59 мл</t>
+    <t>100569132_4725004</t>
+  </si>
+  <si>
+    <t>Solgar B-Complex 50 100 капсул</t>
+  </si>
+  <si>
+    <t>Organic-Vita</t>
+  </si>
+  <si>
+    <t>102533433_4725004</t>
+  </si>
+  <si>
+    <t>NOW Малат магния 1000 мг 180 таблеток</t>
   </si>
   <si>
     <t>Maximus Pharma</t>
   </si>
   <si>
-    <t>SAN84001</t>
-  </si>
-  <si>
-    <t>NutriBiotic витамин Sodium Ascorbate 227 г</t>
-  </si>
-  <si>
-    <t>SAN939685</t>
-  </si>
-  <si>
-    <t>Solgar Magnesium with Vitamin B6 250 таблеток</t>
-  </si>
-  <si>
-    <t>Мендалиева Л</t>
-  </si>
-  <si>
-    <t>SAN939765</t>
-  </si>
-  <si>
-    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 60 таблеток</t>
-  </si>
-  <si>
-    <t>SAN939766</t>
-  </si>
-  <si>
-    <t>Solgar БАД Skin Nails &amp; Hair Advanced Msm Formula 120 таблеток</t>
-  </si>
-  <si>
-    <t>ИП НАКУБОВА</t>
-  </si>
-  <si>
-    <t>SAN9878</t>
-  </si>
-  <si>
-    <t>NOW витамин Vitamin D-3 10 000 IU 120 капсул</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>1GeneticShop</t>
-  </si>
-  <si>
-    <t>100626938_4725004</t>
-  </si>
-  <si>
-    <t>NOW Chlorophyll 100 мг 90 капсул</t>
-  </si>
-  <si>
-    <t>102311888_4725004</t>
-  </si>
-  <si>
-    <t>Solgar минерал Хелат Железа 100 таблеток</t>
-  </si>
-  <si>
-    <t>Vita_market</t>
-  </si>
-  <si>
-    <t>103465071_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition БАД набор Омега 3 и D3 290 капсул</t>
+    <t>101194056_4725004</t>
+  </si>
+  <si>
+    <t>NOW БАД Inositol Capsules 500 mcg 100 капсул</t>
+  </si>
+  <si>
+    <t>SAN83935</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Buffered Gold C 750 mg 60 капсул</t>
+  </si>
+  <si>
+    <t>103687628_4725004</t>
+  </si>
+  <si>
+    <t>Solgar витамин Vitamin D3 (cholecalciferol) 125 mcg (5000 IU) 100 капсул</t>
+  </si>
+  <si>
+    <t>MyVitamins</t>
+  </si>
+  <si>
+    <t>SAN93971014</t>
+  </si>
+  <si>
+    <t>Nature's Plus БАД Hema-Plex 85 mg 30 таблеток</t>
+  </si>
+  <si>
+    <t>100904549_4725004</t>
+  </si>
+  <si>
+    <t>Doctor's Best High Absorption Magnesium таблетки 120 шт</t>
+  </si>
+  <si>
+    <t>101196728_4725004</t>
+  </si>
+  <si>
+    <t>Solgar БАД Zinc 50 mg 100 шт</t>
+  </si>
+  <si>
+    <t>104481389_4725004</t>
+  </si>
+  <si>
+    <t>Life-flo минерал Liquid Iodine Plus Апельсин 59 мл</t>
+  </si>
+  <si>
+    <t>Витамины и БАДы</t>
+  </si>
+  <si>
+    <t>SAN939662</t>
+  </si>
+  <si>
+    <t>Витамины NOW Lecithin 1200 мг 100 капсул</t>
+  </si>
+  <si>
+    <t>101135465_4725004</t>
+  </si>
+  <si>
+    <t>Life-flo минерал Жидкий йод плюс 59 мл</t>
+  </si>
+  <si>
+    <t>SAN93971043</t>
+  </si>
+  <si>
+    <t>Nature's Plus БАД Hema-Plex Iron 60 капсул</t>
+  </si>
+  <si>
+    <t>SAN84026</t>
+  </si>
+  <si>
+    <t>NOW рыбий жир Ultra Omega-3 90 капсул</t>
+  </si>
+  <si>
+    <t>108896844_4725004</t>
+  </si>
+  <si>
+    <t>NOW Omega-3 капсулы 200 шт</t>
+  </si>
+  <si>
+    <t>SAN83956</t>
+  </si>
+  <si>
+    <t>Solgar БАД Gentle Iron 25 мг 90 капсул</t>
+  </si>
+  <si>
+    <t>Aigi Shop</t>
+  </si>
+  <si>
+    <t>100454325_4725004</t>
+  </si>
+  <si>
+    <t>Solgar витамин D3 250 MCG 10 000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN16</t>
+  </si>
+  <si>
+    <t>ChildLife витамин Echinacea Natural Orange Flavor 30 мл</t>
+  </si>
+  <si>
+    <t>ChildLife</t>
   </si>
   <si>
     <t>Orange Store</t>
   </si>
   <si>
-    <t>103874453_4725004</t>
-  </si>
-  <si>
-    <t>Solgar омега жирные кислоты Evening Primrose Oil 1300 мг 60 капсул</t>
-  </si>
-  <si>
-    <t>104166090_4725004</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Alive! Men's Ultra Potency Complete Multivitamin 60 таблеток</t>
-  </si>
-  <si>
-    <t>105258317_4725004</t>
-  </si>
-  <si>
-    <t>Life-flo минерал Life-flo, Liquid Iodine Plus 59 мл</t>
-  </si>
-  <si>
-    <t>WHEY-KZ</t>
-  </si>
-  <si>
-    <t>108665846_4725004</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition, LactoBif, пробиотики, 5 млрд КОЕ, 10 растительных капсул</t>
-  </si>
-  <si>
-    <t>29502959_4725004</t>
-  </si>
-  <si>
-    <t>NOW Витамин для мужчин Adam Men's Multi 90 капсул</t>
-  </si>
-  <si>
-    <t>BADVKZ</t>
-  </si>
-  <si>
-    <t>SAN939704</t>
-  </si>
-  <si>
-    <t>Solgar Omega 3 950 мг 50 капсул</t>
-  </si>
-  <si>
-    <t>104296427_4725004</t>
-  </si>
-  <si>
-    <t>ChildLife Organic Gripe Water kids раствор 59.15 мл</t>
-  </si>
-  <si>
-    <t>104296405_4725004</t>
-  </si>
-  <si>
-    <t>ChildLife Organic Vitamin D3 раствор 10 мл</t>
-  </si>
-  <si>
-    <t>100800962_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 и K2 120 капсул</t>
-  </si>
-  <si>
-    <t>NUTRIFIT iHerb</t>
-  </si>
-  <si>
-    <t>SAN939654</t>
-  </si>
-  <si>
-    <t>Витамины NOW Zinc Picolinate 50 мг 120 капсул</t>
-  </si>
-  <si>
-    <t>NUTRIFITPVL</t>
-  </si>
-  <si>
-    <t>102491637_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Цитрат Магния 60 таблеток</t>
-  </si>
-  <si>
-    <t>Smart Аптека</t>
-  </si>
-  <si>
-    <t>SAN093076</t>
-  </si>
-  <si>
-    <t>БАД Now Foods Витамин D3 25 мкг 1000 МЕ №180</t>
-  </si>
-  <si>
-    <t>SAN84006</t>
-  </si>
-  <si>
-    <t>NOW БАД Vitamin D-3 5000 IU 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN84024</t>
-  </si>
-  <si>
-    <t>NOW витамин D-3 1000 IU 180 капсул</t>
+    <t>SAN25</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Омега-3 100 капсул</t>
+  </si>
+  <si>
+    <t>ИП КЕНЕСАРЫ-</t>
+  </si>
+  <si>
+    <t>SAN3</t>
+  </si>
+  <si>
+    <t>NOW БАД Thyroid Energy 180 капсул</t>
+  </si>
+  <si>
+    <t>SAN84028</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition минерально-витаминный комплекс Immune 4 60 капсул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Gold Nutrition </t>
+  </si>
+  <si>
+    <t>SAN939602</t>
+  </si>
+  <si>
+    <t>Витамины California Gold Nutrition Vitamin D3 2000ME</t>
+  </si>
+  <si>
+    <t>ИП НУРИЕВА</t>
+  </si>
+  <si>
+    <t>SAN939632</t>
+  </si>
+  <si>
+    <t>Витамины Now Foods Жидкий Liquid D-3 1000 МЕ 30 мл</t>
+  </si>
+  <si>
+    <t>SAN939708</t>
+  </si>
+  <si>
+    <t>NOW Vitamin A 10000 IU 100 капсул</t>
   </si>
   <si>
     <t>Хан</t>
   </si>
   <si>
-    <t>SAN939630</t>
-  </si>
-  <si>
-    <t>БАД NOW L-Tyrosine 500 мг 120 капсул</t>
-  </si>
-  <si>
-    <t>SAN939641</t>
-  </si>
-  <si>
-    <t>NOW Sunflower Lecithin 1200 мг 200 капсул</t>
-  </si>
-  <si>
-    <t>SAN939653</t>
-  </si>
-  <si>
-    <t>Витамины Now Цинк 50 мг 250 таблеток</t>
-  </si>
-  <si>
-    <t>100904544_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best БАД Collagen Types 1 and 3 with vitamin C 1000 mg 180 таблеток</t>
-  </si>
-  <si>
-    <t>100911728_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best витамин Vitamin D3 125 mcg 5000 IU 180 капсул</t>
-  </si>
-  <si>
-    <t>My Help</t>
-  </si>
-  <si>
-    <t>103355042_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин A 10000 ME 100 капсул</t>
-  </si>
-  <si>
-    <t>Витамины и БАДы</t>
-  </si>
-  <si>
-    <t>103728924_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 5000 МЕ 120 таблеток</t>
-  </si>
-  <si>
-    <t>103729797_4725004</t>
-  </si>
-  <si>
-    <t>NOW витамин D3 1000 МЕ 180 капсул</t>
-  </si>
-  <si>
-    <t>104884228_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best Магний с высокой степенью усвоения таблетки 120 шт</t>
-  </si>
-  <si>
-    <t>SAN84034</t>
-  </si>
-  <si>
-    <t>NOW БАД D-3 5000 IU 240 капсул</t>
-  </si>
-  <si>
-    <t>101873686_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best минерал High Absorption Magnesium 100 mg 240 таблеток</t>
-  </si>
-  <si>
-    <t>106773931_4725004</t>
-  </si>
-  <si>
-    <t>Solgar Omega 3 Fish Oil Concentrate</t>
-  </si>
-  <si>
-    <t>102346092_4725004</t>
-  </si>
-  <si>
-    <t>Solgar БАД Концентрат рыбьего жира Омега-3 120 капсул</t>
-  </si>
-  <si>
-    <t>B13shop_kz</t>
-  </si>
-  <si>
-    <t>104399287_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best Магний с высокой степенью усвоения 100 мг 120 таблеток</t>
-  </si>
-  <si>
-    <t>SAN93977171</t>
-  </si>
-  <si>
-    <t>Solgar Ester-C Plus Витамин C 500 MG 100 капсул</t>
-  </si>
-  <si>
-    <t>100569132_4725004</t>
-  </si>
-  <si>
-    <t>Solgar B-Complex 50 100 капсул</t>
-  </si>
-  <si>
-    <t>Organic-Vita</t>
-  </si>
-  <si>
-    <t>102533433_4725004</t>
-  </si>
-  <si>
-    <t>NOW Малат магния 1000 мг 180 таблеток</t>
-  </si>
-  <si>
-    <t>101194056_4725004</t>
-  </si>
-  <si>
-    <t>NOW БАД Inositol Capsules 500 mcg 100 капсул</t>
-  </si>
-  <si>
-    <t>SAN83935</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition витамин Buffered Gold C 750 mg 60 капсул</t>
-  </si>
-  <si>
-    <t>103687628_4725004</t>
-  </si>
-  <si>
-    <t>Solgar витамин Vitamin D3 (cholecalciferol) 125 mcg (5000 IU) 100 капсул</t>
-  </si>
-  <si>
-    <t>MyVitamins</t>
-  </si>
-  <si>
-    <t>SAN93971014</t>
-  </si>
-  <si>
-    <t>Nature's Plus БАД Hema-Plex 85 mg 30 таблеток</t>
-  </si>
-  <si>
-    <t>100904549_4725004</t>
-  </si>
-  <si>
-    <t>Doctor's Best High Absorption Magnesium таблетки 120 шт</t>
-  </si>
-  <si>
-    <t>101196728_4725004</t>
-  </si>
-  <si>
-    <t>Solgar БАД Zinc 50 mg 100 шт</t>
-  </si>
-  <si>
-    <t>104481389_4725004</t>
-  </si>
-  <si>
-    <t>Life-flo минерал Liquid Iodine Plus Апельсин 59 мл</t>
-  </si>
-  <si>
-    <t>SAN939662</t>
-  </si>
-  <si>
-    <t>Витамины NOW Lecithin 1200 мг 100 капсул</t>
-  </si>
-  <si>
-    <t>101135465_4725004</t>
-  </si>
-  <si>
-    <t>Life-flo минерал Жидкий йод плюс 59 мл</t>
-  </si>
-  <si>
-    <t>SAN93971043</t>
-  </si>
-  <si>
-    <t>Nature's Plus БАД Hema-Plex Iron 60 капсул</t>
-  </si>
-  <si>
-    <t>SAN84026</t>
-  </si>
-  <si>
-    <t>NOW рыбий жир Ultra Omega-3 90 капсул</t>
-  </si>
-  <si>
-    <t>SAN24</t>
-  </si>
-  <si>
-    <t>NOW омега жирные кислоты Ultra Omega 3-D 180 капсул</t>
-  </si>
-  <si>
-    <t>108896844_4725004</t>
-  </si>
-  <si>
-    <t>NOW Omega-3 капсулы 200 шт</t>
-  </si>
-  <si>
-    <t>SAN83956</t>
-  </si>
-  <si>
-    <t>Solgar БАД Gentle Iron 25 мг 90 капсул</t>
-  </si>
-  <si>
-    <t>Aigi Shop</t>
-  </si>
-  <si>
-    <t>100454325_4725004</t>
-  </si>
-  <si>
-    <t>Solgar витамин D3 250 MCG 10 000 IU 120 капсул</t>
-  </si>
-  <si>
-    <t>ALP ASTANA</t>
-  </si>
-  <si>
-    <t>SAN16</t>
-  </si>
-  <si>
-    <t>ChildLife витамин Echinacea Natural Orange Flavor 30 мл</t>
-  </si>
-  <si>
-    <t>ChildLife</t>
-  </si>
-  <si>
-    <t>ABS Grоup</t>
-  </si>
-  <si>
-    <t>SAN25</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition Омега-3 100 капсул</t>
-  </si>
-  <si>
-    <t>Lux boutique_ns</t>
-  </si>
-  <si>
-    <t>SAN3</t>
-  </si>
-  <si>
-    <t>NOW БАД Thyroid Energy 180 капсул</t>
-  </si>
-  <si>
-    <t>SAN84028</t>
-  </si>
-  <si>
-    <t>California Gold Nutrition минерально-витаминный комплекс Immune 4 60 капсул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California Gold Nutrition </t>
-  </si>
-  <si>
-    <t>АрАли</t>
-  </si>
-  <si>
-    <t>SAN939602</t>
-  </si>
-  <si>
-    <t>Витамины California Gold Nutrition Vitamin D3 2000ME</t>
-  </si>
-  <si>
-    <t>Vitamins Organic</t>
-  </si>
-  <si>
-    <t>SAN939632</t>
-  </si>
-  <si>
-    <t>Витамины Now Foods Жидкий Liquid D-3 1000 МЕ 30 мл</t>
-  </si>
-  <si>
-    <t>SAN939708</t>
-  </si>
-  <si>
-    <t>NOW Vitamin A 10000 IU 100 капсул</t>
-  </si>
-  <si>
     <t>SAN939733</t>
   </si>
   <si>
@@ -878,9 +875,6 @@
     <t>California Gold Nutrition витамин Gold C Vitamin C 1000 мг 60 капсул</t>
   </si>
   <si>
-    <t>Liquidator kz</t>
-  </si>
-  <si>
     <t>100907856_4725004</t>
   </si>
   <si>
@@ -926,30 +920,12 @@
     <t>NOW Vitamin B-6 100 мг 250 капсул</t>
   </si>
   <si>
-    <t>103102123_4725004</t>
-  </si>
-  <si>
-    <t>NOW омега жирные кислоты DHA Chewables для детей 60 таблеток</t>
-  </si>
-  <si>
-    <t>103246026_4725004</t>
-  </si>
-  <si>
-    <t>Nature's Way мультивитамины Alive Womens Gummy 130 капсул</t>
-  </si>
-  <si>
     <t>103724025_4725004</t>
   </si>
   <si>
     <t>California Gold Nutrition БАД DHA 700 Pharmaceutical Grade Fish Oil 30 капсул</t>
   </si>
   <si>
-    <t>104359579_4725004</t>
-  </si>
-  <si>
-    <t>NaturesPlus БАД Animal Parade Kid Zinc 90 леденцов</t>
-  </si>
-  <si>
     <t>104387713_4725004</t>
   </si>
   <si>
@@ -966,9 +942,6 @@
   </si>
   <si>
     <t>Витамин D3 для детей от California Gold Nutrition</t>
-  </si>
-  <si>
-    <t>ИП КЕНЕСАРЫ-</t>
   </si>
   <si>
     <t>Data Item</t>
@@ -1038,7 +1011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1086,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,10 +1107,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,7 +1414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,26 +1489,24 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>6150</v>
+        <v>8300</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2"/>
       <c r="L2" s="3" t="s">
@@ -1534,48 +1514,48 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4">
-        <v>-155</v>
+        <v>-536</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="4">
-        <v>5995</v>
+        <v>7764</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="6">
-        <v>0</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="2">
-        <v>4200</v>
+        <v>3480</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2"/>
       <c r="L3" s="3" t="s">
@@ -1583,56 +1563,70 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4">
-        <v>-353</v>
+        <v>-21</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3" s="4">
-        <v>3847</v>
+        <v>3459</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <v>0</v>
+        <v>556.8</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>7795</v>
+        <v>8321</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2"/>
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M4" s="4">
+        <v>8327</v>
+      </c>
+      <c r="N4" s="7">
+        <v>-5</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="4">
+        <v>8322</v>
+      </c>
       <c r="Q4" s="5">
-        <v>0</v>
+        <v>5591.5</v>
       </c>
       <c r="R4" s="6">
-        <v>0</v>
+        <v>6923.82</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1642,46 +1636,46 @@
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>8382</v>
+        <v>11660</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2"/>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
-        <v>-285</v>
+      <c r="M5" s="4">
+        <v>11662</v>
+      </c>
+      <c r="N5" s="7">
+        <v>-1</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="4">
-        <v>8097</v>
+        <v>11661</v>
       </c>
       <c r="Q5" s="5">
-        <v>0</v>
+        <v>7093.69</v>
       </c>
       <c r="R5" s="6">
-        <v>0</v>
+        <v>8959.610000000001</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1693,93 +1687,95 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>7990</v>
+        <v>14851</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2"/>
       <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
-        <v>-500</v>
+      <c r="M6" s="4">
+        <v>14853</v>
+      </c>
+      <c r="N6" s="7">
+        <v>-1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P6" s="4">
-        <v>7490</v>
+        <v>14852</v>
       </c>
       <c r="Q6" s="5">
-        <v>0</v>
+        <v>7259.89</v>
       </c>
       <c r="R6" s="6">
-        <v>0</v>
+        <v>9636.370000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2">
-        <v>12898</v>
+        <v>12888</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2"/>
       <c r="L7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="4">
-        <v>12900</v>
+        <v>12894</v>
       </c>
       <c r="N7" s="7">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="P7" s="4">
-        <v>12899</v>
+        <v>12889</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="6">
-        <v>0</v>
+        <v>2063.04</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1789,783 +1785,789 @@
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>8400</v>
+        <v>5999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2"/>
       <c r="L8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
-        <v>-4169</v>
+      <c r="M8" s="4">
+        <v>5897</v>
+      </c>
+      <c r="N8" s="8">
+        <v>103</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="4">
-        <v>4231</v>
+        <v>6000</v>
       </c>
       <c r="Q8" s="5">
-        <v>0</v>
+        <v>4381.4</v>
       </c>
       <c r="R8" s="6">
-        <v>0</v>
+        <v>5324.92</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>15000</v>
+        <v>10407</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2"/>
       <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>-202</v>
+      <c r="M9" s="4">
+        <v>10409</v>
+      </c>
+      <c r="N9" s="7">
+        <v>-1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P9" s="4">
-        <v>14798</v>
+        <v>10408</v>
       </c>
       <c r="Q9" s="5">
-        <v>8668.92</v>
+        <v>7123.7</v>
       </c>
       <c r="R9" s="6">
-        <v>11068.92</v>
+        <v>8789.139999999999</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
-        <v>6480</v>
+        <v>15651</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
       <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>-484</v>
+      <c r="M10" s="4">
+        <v>15655</v>
+      </c>
+      <c r="N10" s="7">
+        <v>-3</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P10" s="4">
-        <v>5996</v>
+        <v>15652</v>
       </c>
       <c r="Q10" s="5">
-        <v>3233.89</v>
+        <v>8382.030000000001</v>
       </c>
       <c r="R10" s="6">
-        <v>4270.69</v>
+        <v>10886.83</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>11500</v>
+        <v>8742</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>-300</v>
+      <c r="M11" s="4">
+        <v>8745</v>
+      </c>
+      <c r="N11" s="7">
+        <v>-2</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P11" s="4">
-        <v>11200</v>
+        <v>8743</v>
       </c>
       <c r="Q11" s="5">
-        <v>0</v>
+        <v>4955.15</v>
       </c>
       <c r="R11" s="6">
-        <v>0</v>
+        <v>6354.349999999999</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>6960</v>
+        <v>18680</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2"/>
       <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>-235</v>
+      <c r="M12" s="4">
+        <v>18684</v>
+      </c>
+      <c r="N12" s="7">
+        <v>-3</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P12" s="4">
-        <v>6725</v>
+        <v>18681</v>
       </c>
       <c r="Q12" s="5">
-        <v>0</v>
+        <v>9428.43</v>
       </c>
       <c r="R12" s="6">
-        <v>0</v>
+        <v>12417.87</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="2">
-        <v>7199</v>
+        <v>25271</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>-59</v>
+      <c r="M13" s="4">
+        <v>25273</v>
+      </c>
+      <c r="N13" s="7">
+        <v>-1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="4">
-        <v>7140</v>
+        <v>25272</v>
       </c>
       <c r="Q13" s="5">
-        <v>0</v>
+        <v>16007.68</v>
       </c>
       <c r="R13" s="6">
-        <v>0</v>
+        <v>20051.36</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>3480</v>
+        <v>6543</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2"/>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>-20</v>
+      <c r="M14" s="4">
+        <v>6547</v>
+      </c>
+      <c r="N14" s="7">
+        <v>-3</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="P14" s="4">
-        <v>3460</v>
+        <v>6544</v>
       </c>
       <c r="Q14" s="5">
-        <v>0</v>
+        <v>3416.45</v>
       </c>
       <c r="R14" s="6">
-        <v>0</v>
+        <v>4463.969999999999</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D15" s="2">
-        <v>7675</v>
+        <v>18493</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2"/>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>-1075</v>
+      <c r="M15" s="4">
+        <v>18495</v>
+      </c>
+      <c r="N15" s="7">
+        <v>-1</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P15" s="4">
-        <v>6600</v>
+        <v>18494</v>
       </c>
       <c r="Q15" s="5">
-        <v>0</v>
+        <v>9839.4</v>
       </c>
       <c r="R15" s="6">
-        <v>0</v>
+        <v>12798.6</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="2">
-        <v>6553</v>
+        <v>9933</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2"/>
       <c r="L16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="4">
-        <v>6557</v>
+        <v>9935</v>
       </c>
       <c r="N16" s="7">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P16" s="4">
-        <v>6554</v>
+        <v>9934</v>
       </c>
       <c r="Q16" s="5">
-        <v>3416.45</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>4465.57</v>
+        <v>1589.6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>9939</v>
+        <v>18501</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2"/>
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="4">
-        <v>9941</v>
+        <v>18508</v>
       </c>
       <c r="N17" s="7">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P17" s="4">
-        <v>9940</v>
+        <v>18502</v>
       </c>
       <c r="Q17" s="5">
-        <v>0</v>
+        <v>9428.43</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>12389.71</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="2">
-        <v>18521</v>
+        <v>13311</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2"/>
       <c r="L18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="4">
-        <v>18528</v>
+        <v>13313</v>
       </c>
       <c r="N18" s="7">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P18" s="4">
-        <v>18522</v>
+        <v>13312</v>
       </c>
       <c r="Q18" s="5">
-        <v>9428.43</v>
+        <v>6977.04</v>
       </c>
       <c r="R18" s="6">
-        <v>12392.91</v>
+        <v>9107.119999999999</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2">
-        <v>8749</v>
+        <v>10103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2"/>
       <c r="L19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="4">
-        <v>8752</v>
-      </c>
-      <c r="N19" s="7">
-        <v>-2</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="4">
-        <v>8750</v>
-      </c>
       <c r="Q19" s="5">
-        <v>4955.15</v>
+        <v>6379.11</v>
       </c>
       <c r="R19" s="6">
-        <v>6355.469999999999</v>
+        <v>7995.59</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D20" s="2">
-        <v>14857</v>
+        <v>6960</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2"/>
       <c r="L20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="4">
-        <v>14859</v>
-      </c>
-      <c r="N20" s="7">
-        <v>-1</v>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>-235</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4">
-        <v>14858</v>
+        <v>6725</v>
       </c>
       <c r="Q20" s="5">
-        <v>7259.89</v>
+        <v>0</v>
       </c>
       <c r="R20" s="6">
-        <v>9637.33</v>
+        <v>1113.6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="2">
-        <v>11666</v>
+        <v>7996</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="2"/>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="4">
-        <v>11670</v>
+        <v>7998</v>
       </c>
       <c r="N21" s="7">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P21" s="4">
-        <v>11667</v>
+        <v>7997</v>
       </c>
       <c r="Q21" s="5">
-        <v>7093.69</v>
+        <v>4115.35</v>
       </c>
       <c r="R21" s="6">
-        <v>8960.889999999999</v>
+        <v>5395.030000000001</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="2">
-        <v>5901</v>
+        <v>11670</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="2"/>
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M22" s="4">
-        <v>5903</v>
+        <v>11673</v>
       </c>
       <c r="N22" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P22" s="4">
-        <v>5902</v>
+        <v>11671</v>
       </c>
       <c r="Q22" s="5">
-        <v>4381.4</v>
+        <v>7568.35</v>
       </c>
       <c r="R22" s="6">
-        <v>5325.879999999999</v>
+        <v>9436.030000000001</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D23" s="2">
-        <v>8332</v>
+        <v>6150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="2"/>
       <c r="L23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="4">
-        <v>8337</v>
-      </c>
-      <c r="N23" s="7">
-        <v>-4</v>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
+        <v>-155</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="P23" s="4">
-        <v>8333</v>
+        <v>5995</v>
       </c>
       <c r="Q23" s="5">
-        <v>5591.5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="6">
-        <v>6925.42</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2576,47 +2578,45 @@
         <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
-        <v>13317</v>
+        <v>4200</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="2"/>
       <c r="L24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="4">
-        <v>13319</v>
-      </c>
-      <c r="N24" s="7">
-        <v>-1</v>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
+        <v>-355</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="P24" s="4">
-        <v>13318</v>
+        <v>3845</v>
       </c>
       <c r="Q24" s="5">
-        <v>6977.04</v>
+        <v>0</v>
       </c>
       <c r="R24" s="6">
-        <v>9108.08</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2627,288 +2627,262 @@
         <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2">
-        <v>11674</v>
+        <v>11289</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="2"/>
       <c r="L25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="4">
-        <v>11680</v>
-      </c>
-      <c r="N25" s="7">
-        <v>-5</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" s="4">
-        <v>11675</v>
-      </c>
       <c r="Q25" s="5">
-        <v>7568.35</v>
+        <v>6927.41</v>
       </c>
       <c r="R25" s="6">
-        <v>9437.15</v>
+        <v>8733.65</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
-        <v>7851</v>
+        <v>4998</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2"/>
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="4">
-        <v>7853</v>
-      </c>
-      <c r="N26" s="7">
-        <v>-1</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P26" s="4">
-        <v>7852</v>
-      </c>
       <c r="Q26" s="5">
-        <v>3390.37</v>
+        <v>2901.86</v>
       </c>
       <c r="R26" s="6">
-        <v>4646.85</v>
+        <v>3701.54</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D27" s="2">
-        <v>18691</v>
+        <v>11500</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2"/>
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="4">
-        <v>18694</v>
-      </c>
-      <c r="N27" s="7">
-        <v>-2</v>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
+        <v>-300</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="P27" s="4">
-        <v>18692</v>
+        <v>11200</v>
       </c>
       <c r="Q27" s="5">
-        <v>9428.43</v>
+        <v>0</v>
       </c>
       <c r="R27" s="6">
-        <v>12419.47</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D28" s="2">
-        <v>6189</v>
+        <v>14798</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" s="2"/>
       <c r="L28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="4">
-        <v>6191</v>
-      </c>
-      <c r="N28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" s="4">
-        <v>6190</v>
-      </c>
       <c r="Q28" s="5">
-        <v>3416.45</v>
+        <v>8668.92</v>
       </c>
       <c r="R28" s="6">
-        <v>4407.01</v>
+        <v>11036.6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2">
-        <v>10103</v>
+        <v>14687</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" s="2"/>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="4">
-        <v>10106</v>
-      </c>
-      <c r="N29" s="7">
-        <v>-2</v>
+        <v>14500</v>
+      </c>
+      <c r="N29" s="8">
+        <v>188</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P29" s="4">
-        <v>10104</v>
+        <v>14688</v>
       </c>
       <c r="Q29" s="5">
-        <v>6379.11</v>
+        <v>8846.25</v>
       </c>
       <c r="R29" s="6">
-        <v>7996.07</v>
+        <v>11166.25</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2">
-        <v>22498</v>
+        <v>6480</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2"/>
       <c r="L30" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>-980</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="4">
+        <v>5500</v>
+      </c>
       <c r="Q30" s="5">
-        <v>15700.02</v>
+        <v>3233.89</v>
       </c>
       <c r="R30" s="6">
-        <v>19299.7</v>
+        <v>4270.69</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2919,540 +2893,508 @@
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2">
-        <v>11289</v>
+        <v>11193</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="2"/>
       <c r="L31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M31" s="4">
-        <v>11292</v>
+        <v>11196</v>
       </c>
       <c r="N31" s="7">
         <v>-2</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P31" s="4">
-        <v>11290</v>
+        <v>11194</v>
       </c>
       <c r="Q31" s="5">
-        <v>6927.41</v>
+        <v>6671.2</v>
       </c>
       <c r="R31" s="6">
-        <v>8734.129999999999</v>
+        <v>8462.559999999999</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>8447</v>
+        <v>8200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="2"/>
       <c r="L32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="4">
-        <v>8449</v>
-      </c>
-      <c r="N32" s="7">
-        <v>-1</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="4">
-        <v>8448</v>
-      </c>
       <c r="Q32" s="5">
-        <v>5028.18</v>
+        <v>5210.73</v>
       </c>
       <c r="R32" s="6">
-        <v>6380.02</v>
+        <v>6522.73</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <v>19998</v>
+        <v>7990</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" s="2"/>
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" s="4">
+        <v>7490</v>
+      </c>
       <c r="Q33" s="5">
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <v>0</v>
+        <v>1278.4</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D34" s="2">
-        <v>8346</v>
+        <v>6187</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" s="2"/>
       <c r="L34" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M34" s="4">
+        <v>6189</v>
+      </c>
+      <c r="N34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="4">
+        <v>6188</v>
+      </c>
       <c r="Q34" s="5">
-        <v>4908.21</v>
+        <v>3416.45</v>
       </c>
       <c r="R34" s="6">
-        <v>6243.57</v>
+        <v>4406.69</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>7281</v>
+        <v>8445</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" s="2"/>
       <c r="L35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4">
-        <v>-32</v>
+      <c r="M35" s="4">
+        <v>8447</v>
+      </c>
+      <c r="N35" s="7">
+        <v>-1</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="P35" s="4">
-        <v>7249</v>
+        <v>8446</v>
       </c>
       <c r="Q35" s="5">
-        <v>0</v>
+        <v>5028.18</v>
       </c>
       <c r="R35" s="6">
-        <v>0</v>
+        <v>6379.700000000001</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>19731</v>
+        <v>7795</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36" s="2"/>
       <c r="L36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4">
-        <v>-1232</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P36" s="4">
-        <v>18499</v>
-      </c>
       <c r="Q36" s="5">
-        <v>9839.4</v>
+        <v>0</v>
       </c>
       <c r="R36" s="6">
-        <v>12996.36</v>
+        <v>1247.2</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>8494</v>
+        <v>10890</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2"/>
       <c r="L37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4">
-        <v>-494</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="4">
-        <v>8000</v>
-      </c>
       <c r="Q37" s="5">
-        <v>4115.35</v>
+        <v>5085.55</v>
       </c>
       <c r="R37" s="6">
-        <v>5474.39</v>
+        <v>6827.950000000001</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>10772</v>
+        <v>8344</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38" s="2"/>
       <c r="L38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <v>-352</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" s="4">
-        <v>10420</v>
-      </c>
       <c r="Q38" s="5">
-        <v>7123.7</v>
+        <v>4908.21</v>
       </c>
       <c r="R38" s="6">
-        <v>8847.219999999999</v>
+        <v>6243.25</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>15793</v>
+        <v>21899</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39" s="2"/>
       <c r="L39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4">
-        <v>-126</v>
+      <c r="M39" s="4">
+        <v>21700</v>
+      </c>
+      <c r="N39" s="8">
+        <v>200</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="P39" s="4">
-        <v>15667</v>
+        <v>21900</v>
       </c>
       <c r="Q39" s="5">
-        <v>8382.030000000001</v>
+        <v>10339.84</v>
       </c>
       <c r="R39" s="6">
-        <v>10908.91</v>
+        <v>13811.84</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2">
-        <v>6859</v>
+        <v>7847</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" s="2"/>
       <c r="L40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4">
-        <v>-39</v>
+      <c r="M40" s="4">
+        <v>7849</v>
+      </c>
+      <c r="N40" s="7">
+        <v>-1</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="P40" s="4">
-        <v>6820</v>
+        <v>7848</v>
       </c>
       <c r="Q40" s="5">
-        <v>3588.77</v>
+        <v>3390.37</v>
       </c>
       <c r="R40" s="6">
-        <v>4686.21</v>
+        <v>4646.21</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>5199</v>
+        <v>15000</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41" s="2"/>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4">
-        <v>-199</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P41" s="4">
-        <v>5000</v>
-      </c>
       <c r="Q41" s="5">
-        <v>2901.86</v>
+        <v>9373.07</v>
       </c>
       <c r="R41" s="6">
-        <v>3733.7</v>
+        <v>11773.07</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2">
-        <v>7197</v>
+        <v>8400</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" s="2"/>
       <c r="L42" s="3" t="s">
@@ -3460,146 +3402,134 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4">
-        <v>-221</v>
+        <v>-4179</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="P42" s="4">
-        <v>6976</v>
+        <v>4221</v>
       </c>
       <c r="Q42" s="5">
-        <v>4682.79</v>
+        <v>0</v>
       </c>
       <c r="R42" s="6">
-        <v>5834.309999999999</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2">
-        <v>14784</v>
+        <v>1697</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" s="2"/>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4">
-        <v>-284</v>
+      <c r="M43" s="4">
+        <v>1700</v>
+      </c>
+      <c r="N43" s="7">
+        <v>-2</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P43" s="4">
-        <v>14500</v>
+        <v>1698</v>
       </c>
       <c r="Q43" s="5">
-        <v>8846.25</v>
+        <v>518.5599999999999</v>
       </c>
       <c r="R43" s="6">
-        <v>11211.69</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2">
-        <v>11615</v>
+        <v>14099</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" s="2"/>
       <c r="L44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4">
-        <v>-416</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" s="4">
-        <v>11199</v>
-      </c>
       <c r="Q44" s="5">
-        <v>6671.2</v>
+        <v>7896.95</v>
       </c>
       <c r="R44" s="6">
-        <v>8529.6</v>
+        <v>10152.79</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2">
-        <v>19000</v>
+        <v>8382</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" s="2"/>
       <c r="L45" s="3" t="s">
@@ -3607,48 +3537,46 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4">
-        <v>-1003</v>
+        <v>-285</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P45" s="4">
-        <v>17997</v>
+        <v>8097</v>
       </c>
       <c r="Q45" s="5">
-        <v>11339.48</v>
+        <v>0</v>
       </c>
       <c r="R45" s="6">
-        <v>14379.48</v>
+        <v>1341.12</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2">
-        <v>6488</v>
+        <v>7199</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J46" s="2"/>
       <c r="L46" s="3" t="s">
@@ -3656,46 +3584,46 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4">
-        <v>-150</v>
+        <v>-60</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="P46" s="4">
-        <v>6338</v>
+        <v>7139</v>
       </c>
       <c r="Q46" s="5">
-        <v>4058.01</v>
+        <v>5555</v>
       </c>
       <c r="R46" s="6">
-        <v>5096.09</v>
+        <v>6706.84</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
-        <v>9839</v>
+        <v>7675</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J47" s="2"/>
       <c r="L47" s="3" t="s">
@@ -3703,113 +3631,95 @@
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4">
-        <v>-1639</v>
+        <v>-1075</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P47" s="4">
-        <v>8200</v>
+        <v>6600</v>
       </c>
       <c r="Q47" s="5">
-        <v>5210.73</v>
+        <v>0</v>
       </c>
       <c r="R47" s="6">
-        <v>6784.969999999999</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D48" s="2">
-        <v>10999</v>
+        <v>22498</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J48" s="2"/>
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4">
-        <v>-109</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="P48" s="4">
-        <v>10890</v>
-      </c>
       <c r="Q48" s="5">
-        <v>5085.55</v>
+        <v>15700.02</v>
       </c>
       <c r="R48" s="6">
-        <v>6845.39</v>
+        <v>19299.7</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
-        <v>11769</v>
+        <v>19998</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J49" s="2"/>
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4">
-        <v>-863</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P49" s="4">
-        <v>10906</v>
-      </c>
       <c r="Q49" s="5">
-        <v>7823.93</v>
+        <v>0</v>
       </c>
       <c r="R49" s="6">
-        <v>9706.970000000001</v>
+        <v>3199.68</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3821,32 +3731,42 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>12489</v>
+        <v>7281</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J50" s="2"/>
       <c r="L50" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
+        <v>-32</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" s="4">
+        <v>7249</v>
+      </c>
       <c r="Q50" s="5">
         <v>0</v>
       </c>
       <c r="R50" s="6">
-        <v>0</v>
+        <v>1164.96</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3856,24 +3776,26 @@
       <c r="B51" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D51" s="2">
-        <v>16569</v>
+        <v>7197</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J51" s="2"/>
       <c r="L51" s="3" t="s">
@@ -3881,46 +3803,48 @@
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4">
-        <v>-1569</v>
+        <v>-227</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P51" s="4">
-        <v>15000</v>
+        <v>6970</v>
       </c>
       <c r="Q51" s="5">
-        <v>9373.07</v>
+        <v>4682.79</v>
       </c>
       <c r="R51" s="6">
-        <v>12024.11</v>
+        <v>5834.309999999999</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D52" s="2">
-        <v>6179</v>
+        <v>6488</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J52" s="2"/>
       <c r="L52" s="3" t="s">
@@ -3928,46 +3852,46 @@
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4">
-        <v>-1289</v>
+        <v>-182</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P52" s="4">
-        <v>4890</v>
+        <v>6306</v>
       </c>
       <c r="Q52" s="5">
-        <v>3072.2</v>
+        <v>4058.01</v>
       </c>
       <c r="R52" s="6">
-        <v>4060.84</v>
+        <v>5096.09</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <v>1830</v>
+        <v>11769</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J53" s="2"/>
       <c r="L53" s="3" t="s">
@@ -3975,169 +3899,181 @@
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4">
-        <v>-127</v>
+        <v>-875</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>37</v>
       </c>
       <c r="P53" s="4">
-        <v>1703</v>
+        <v>10894</v>
       </c>
       <c r="Q53" s="5">
-        <v>518.5599999999999</v>
+        <v>7823.93</v>
       </c>
       <c r="R53" s="6">
-        <v>811.3599999999999</v>
+        <v>9706.970000000001</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <v>14989</v>
+        <v>12489</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="2"/>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4">
-        <v>-890</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="P54" s="4">
-        <v>14099</v>
-      </c>
       <c r="Q54" s="5">
-        <v>7896.95</v>
+        <v>0</v>
       </c>
       <c r="R54" s="6">
-        <v>10295.19</v>
+        <v>1998.24</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2">
-        <v>14998</v>
+        <v>6179</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J55" s="2"/>
       <c r="L55" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
+        <v>-1289</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P55" s="4">
+        <v>4890</v>
+      </c>
       <c r="Q55" s="5">
-        <v>10870.04</v>
+        <v>3072.2</v>
       </c>
       <c r="R55" s="6">
-        <v>13269.72</v>
+        <v>4060.84</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D56" s="2">
-        <v>11980</v>
+        <v>17099</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J56" s="2"/>
       <c r="L56" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M56" s="4">
+        <v>14998</v>
+      </c>
+      <c r="N56" s="8">
+        <v>2102</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="4">
+        <v>17100</v>
+      </c>
       <c r="Q56" s="5">
-        <v>0</v>
+        <v>10870.04</v>
       </c>
       <c r="R56" s="6">
-        <v>0</v>
+        <v>13269.72</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
-        <v>13700</v>
+        <v>11980</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J57" s="2"/>
       <c r="L57" s="3" t="s">
@@ -4147,83 +4083,71 @@
         <v>0</v>
       </c>
       <c r="R57" s="6">
-        <v>0</v>
+        <v>1916.8</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
-        <v>7200</v>
+        <v>13700</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" s="2"/>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4">
-        <v>-914</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="P58" s="4">
-        <v>6286</v>
-      </c>
       <c r="Q58" s="5">
         <v>0</v>
       </c>
       <c r="R58" s="6">
-        <v>0</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2">
-        <v>7499</v>
+        <v>7200</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J59" s="2"/>
       <c r="L59" s="3" t="s">
@@ -4231,19 +4155,19 @@
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4">
-        <v>-424</v>
+        <v>-913</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="P59" s="4">
-        <v>7075</v>
+        <v>6287</v>
       </c>
       <c r="Q59" s="5">
-        <v>4506.58</v>
+        <v>0</v>
       </c>
       <c r="R59" s="6">
-        <v>5706.42</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4253,24 +4177,26 @@
       <c r="B60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D60" s="2">
-        <v>11000</v>
+        <v>7499</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60" s="2"/>
       <c r="L60" s="3" t="s">
@@ -4278,19 +4204,19 @@
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4">
-        <v>-2697</v>
+        <v>-424</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>174</v>
       </c>
       <c r="P60" s="4">
-        <v>8303</v>
+        <v>7075</v>
       </c>
       <c r="Q60" s="5">
-        <v>0</v>
+        <v>4506.58</v>
       </c>
       <c r="R60" s="6">
-        <v>0</v>
+        <v>5706.42</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4300,26 +4226,24 @@
       <c r="B61" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2">
-        <v>3288</v>
+        <v>11000</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J61" s="2"/>
       <c r="L61" s="3" t="s">
@@ -4327,48 +4251,48 @@
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4">
-        <v>-24</v>
+        <v>-2697</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="P61" s="4">
-        <v>3264</v>
+        <v>8303</v>
       </c>
       <c r="Q61" s="5">
-        <v>1836.02</v>
+        <v>0</v>
       </c>
       <c r="R61" s="6">
-        <v>2362.1</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2">
-        <v>4250</v>
+        <v>3288</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J62" s="2"/>
       <c r="L62" s="3" t="s">
@@ -4376,48 +4300,48 @@
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4">
-        <v>-333</v>
+        <v>-38</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="P62" s="4">
-        <v>3917</v>
+        <v>3250</v>
       </c>
       <c r="Q62" s="5">
-        <v>2769.67</v>
+        <v>1836.02</v>
       </c>
       <c r="R62" s="6">
-        <v>3449.67</v>
+        <v>2362.1</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2">
-        <v>3403</v>
+        <v>4250</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J63" s="2"/>
       <c r="L63" s="3" t="s">
@@ -4425,19 +4349,19 @@
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4">
-        <v>-453</v>
+        <v>-334</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="P63" s="4">
-        <v>2950</v>
+        <v>3916</v>
       </c>
       <c r="Q63" s="5">
-        <v>1836.02</v>
+        <v>2769.67</v>
       </c>
       <c r="R63" s="6">
-        <v>2380.5</v>
+        <v>3449.67</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4448,25 +4372,25 @@
         <v>183</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2">
-        <v>8989</v>
+        <v>3403</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J64" s="2"/>
       <c r="L64" s="3" t="s">
@@ -4474,19 +4398,19 @@
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4">
-        <v>-979</v>
+        <v>-454</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P64" s="4">
-        <v>8010</v>
+        <v>2949</v>
       </c>
       <c r="Q64" s="5">
-        <v>0</v>
+        <v>1836.02</v>
       </c>
       <c r="R64" s="6">
-        <v>0</v>
+        <v>2380.5</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4497,25 +4421,25 @@
         <v>185</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2">
-        <v>11703</v>
+        <v>8989</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J65" s="2"/>
       <c r="L65" s="3" t="s">
@@ -4523,19 +4447,19 @@
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4">
-        <v>-708</v>
+        <v>-989</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="P65" s="4">
-        <v>10995</v>
+        <v>8000</v>
       </c>
       <c r="Q65" s="5">
-        <v>7589.21</v>
+        <v>0</v>
       </c>
       <c r="R65" s="6">
-        <v>9461.690000000001</v>
+        <v>1438.24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4546,62 +4470,72 @@
         <v>187</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2">
-        <v>6888</v>
+        <v>11703</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J66" s="2"/>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
+        <v>-708</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P66" s="4">
+        <v>10995</v>
+      </c>
       <c r="Q66" s="5">
-        <v>4412.7</v>
+        <v>7589.21</v>
       </c>
       <c r="R66" s="6">
-        <v>5514.78</v>
+        <v>9461.690000000001</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
         <v>11300</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J67" s="2"/>
       <c r="L67" s="3" t="s">
@@ -4609,46 +4543,46 @@
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4">
-        <v>-314</v>
+        <v>-316</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="P67" s="4">
-        <v>10986</v>
+        <v>10984</v>
       </c>
       <c r="Q67" s="5">
         <v>0</v>
       </c>
       <c r="R67" s="6">
-        <v>0</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2">
         <v>4995</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J68" s="2"/>
       <c r="L68" s="3" t="s">
@@ -4656,19 +4590,19 @@
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4">
-        <v>-409</v>
+        <v>-408</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="P68" s="4">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="Q68" s="5">
         <v>0</v>
       </c>
       <c r="R68" s="6">
-        <v>0</v>
+        <v>799.2</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4679,25 +4613,25 @@
         <v>194</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2">
         <v>3665</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J69" s="2"/>
       <c r="L69" s="3" t="s">
@@ -4705,19 +4639,19 @@
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4">
-        <v>-216</v>
+        <v>-215</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>195</v>
       </c>
       <c r="P69" s="4">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="Q69" s="5">
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <v>0</v>
+        <v>586.4</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4728,25 +4662,25 @@
         <v>197</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2">
-        <v>4940</v>
+        <v>3111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J70" s="2"/>
       <c r="L70" s="3" t="s">
@@ -4754,19 +4688,19 @@
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4">
-        <v>-371</v>
+        <v>-623</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="P70" s="4">
-        <v>4569</v>
+        <v>2488</v>
       </c>
       <c r="Q70" s="5">
-        <v>0</v>
+        <v>1836.02</v>
       </c>
       <c r="R70" s="6">
-        <v>0</v>
+        <v>2333.78</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4776,26 +4710,24 @@
       <c r="B71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2">
-        <v>3111</v>
+        <v>10500</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J71" s="2"/>
       <c r="L71" s="3" t="s">
@@ -4803,19 +4735,19 @@
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4">
-        <v>-619</v>
+        <v>-514</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="P71" s="4">
-        <v>2492</v>
+        <v>9986</v>
       </c>
       <c r="Q71" s="5">
-        <v>1836.02</v>
+        <v>0</v>
       </c>
       <c r="R71" s="6">
-        <v>2333.78</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4825,24 +4757,26 @@
       <c r="B72" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D72" s="2">
-        <v>10500</v>
+        <v>8950</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J72" s="2"/>
       <c r="L72" s="3" t="s">
@@ -4850,19 +4784,19 @@
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4">
-        <v>-514</v>
+        <v>-1093</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="P72" s="4">
-        <v>9986</v>
+        <v>7857</v>
       </c>
       <c r="Q72" s="5">
         <v>0</v>
       </c>
       <c r="R72" s="6">
-        <v>0</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4872,26 +4806,24 @@
       <c r="B73" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="2">
-        <v>8950</v>
+        <v>14990</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J73" s="2"/>
       <c r="L73" s="3" t="s">
@@ -4899,19 +4831,19 @@
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4">
-        <v>-1091</v>
+        <v>-704</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P73" s="4">
-        <v>7859</v>
+        <v>14286</v>
       </c>
       <c r="Q73" s="5">
         <v>0</v>
       </c>
       <c r="R73" s="6">
-        <v>0</v>
+        <v>2398.4</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4923,42 +4855,44 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2">
-        <v>14990</v>
+        <v>12979</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J74" s="2"/>
       <c r="L74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4">
-        <v>-704</v>
+      <c r="M74" s="4">
+        <v>12900</v>
+      </c>
+      <c r="N74" s="8">
+        <v>80</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="P74" s="4">
-        <v>14286</v>
+        <v>12980</v>
       </c>
       <c r="Q74" s="5">
         <v>0</v>
       </c>
       <c r="R74" s="6">
-        <v>0</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4970,59 +4904,69 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J75" s="2"/>
       <c r="L75" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4">
+        <v>-951</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P75" s="4">
+        <v>11549</v>
+      </c>
       <c r="Q75" s="5">
         <v>0</v>
       </c>
       <c r="R75" s="6">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
-        <v>12500</v>
+        <v>8600</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J76" s="2"/>
       <c r="L76" s="3" t="s">
@@ -5030,46 +4974,48 @@
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4">
-        <v>-951</v>
+        <v>-114</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P76" s="4">
-        <v>11549</v>
+        <v>8486</v>
       </c>
       <c r="Q76" s="5">
         <v>0</v>
       </c>
       <c r="R76" s="6">
-        <v>0</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D77" s="2">
-        <v>8600</v>
+        <v>14550</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J77" s="2"/>
       <c r="L77" s="3" t="s">
@@ -5077,48 +5023,46 @@
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4">
-        <v>-114</v>
+        <v>-1250</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="P77" s="4">
-        <v>8486</v>
+        <v>13300</v>
       </c>
       <c r="Q77" s="5">
         <v>0</v>
       </c>
       <c r="R77" s="6">
-        <v>0</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2">
-        <v>14550</v>
+        <v>12900</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J78" s="2"/>
       <c r="L78" s="3" t="s">
@@ -5126,46 +5070,46 @@
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4">
-        <v>-1250</v>
+        <v>-1051</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="P78" s="4">
-        <v>13300</v>
+        <v>11849</v>
       </c>
       <c r="Q78" s="5">
         <v>0</v>
       </c>
       <c r="R78" s="6">
-        <v>0</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2">
-        <v>12900</v>
+        <v>11600</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J79" s="2"/>
       <c r="L79" s="3" t="s">
@@ -5173,46 +5117,46 @@
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4">
-        <v>-1051</v>
+        <v>-450</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P79" s="4">
-        <v>11849</v>
+        <v>11150</v>
       </c>
       <c r="Q79" s="5">
         <v>0</v>
       </c>
       <c r="R79" s="6">
-        <v>0</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2">
-        <v>11600</v>
+        <v>6070</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J80" s="2"/>
       <c r="L80" s="3" t="s">
@@ -5220,132 +5164,134 @@
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4">
-        <v>-450</v>
+        <v>-384</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="P80" s="4">
-        <v>11150</v>
+        <v>5686</v>
       </c>
       <c r="Q80" s="5">
         <v>0</v>
       </c>
       <c r="R80" s="6">
-        <v>0</v>
+        <v>971.2</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D81" s="2">
-        <v>6070</v>
+        <v>3629</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J81" s="2"/>
       <c r="L81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4">
-        <v>-384</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P81" s="4">
-        <v>5686</v>
-      </c>
       <c r="Q81" s="5">
-        <v>0</v>
+        <v>1560.93</v>
       </c>
       <c r="R81" s="6">
-        <v>0</v>
+        <v>2141.57</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" s="2">
-        <v>3629</v>
+        <v>16989</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J82" s="2"/>
       <c r="L82" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
+        <v>-189</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P82" s="4">
+        <v>16800</v>
+      </c>
       <c r="Q82" s="5">
-        <v>1560.93</v>
+        <v>0</v>
       </c>
       <c r="R82" s="6">
-        <v>2141.57</v>
+        <v>2718.24</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D83" s="2">
-        <v>16989</v>
+        <v>7146</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J83" s="2"/>
       <c r="L83" s="3" t="s">
@@ -5353,48 +5299,46 @@
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4">
-        <v>-189</v>
+        <v>-504</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="P83" s="4">
-        <v>16800</v>
+        <v>6642</v>
       </c>
       <c r="Q83" s="5">
-        <v>0</v>
+        <v>4224.92</v>
       </c>
       <c r="R83" s="6">
-        <v>0</v>
+        <v>5368.28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2">
-        <v>7146</v>
+        <v>20000</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J84" s="2"/>
       <c r="L84" s="3" t="s">
@@ -5402,46 +5346,46 @@
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4">
-        <v>-501</v>
+        <v>-11900</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="P84" s="4">
-        <v>6645</v>
+        <v>8100</v>
       </c>
       <c r="Q84" s="5">
-        <v>4224.92</v>
+        <v>0</v>
       </c>
       <c r="R84" s="6">
-        <v>5368.28</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2">
         <v>20000</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J85" s="2"/>
       <c r="L85" s="3" t="s">
@@ -5449,132 +5393,144 @@
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4">
-        <v>-11900</v>
+        <v>-11151</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="P85" s="4">
-        <v>8100</v>
+        <v>8849</v>
       </c>
       <c r="Q85" s="5">
         <v>0</v>
       </c>
       <c r="R85" s="6">
-        <v>0</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2">
-        <v>20000</v>
+        <v>5954</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J86" s="2"/>
       <c r="L86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4">
-        <v>-11151</v>
+      <c r="M86" s="4">
+        <v>5960</v>
+      </c>
+      <c r="N86" s="7">
+        <v>-5</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="P86" s="4">
-        <v>8849</v>
+        <v>5955</v>
       </c>
       <c r="Q86" s="5">
-        <v>0</v>
+        <v>2922.81</v>
       </c>
       <c r="R86" s="6">
-        <v>0</v>
+        <v>3876.41</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D87" s="2">
-        <v>5960</v>
+        <v>4941</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J87" s="2"/>
       <c r="L87" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4">
+        <v>-211</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P87" s="4">
+        <v>4730</v>
+      </c>
       <c r="Q87" s="5">
-        <v>2922.81</v>
+        <v>0</v>
       </c>
       <c r="R87" s="6">
-        <v>3876.41</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="2">
-        <v>4941</v>
+        <v>5900</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J88" s="2"/>
       <c r="L88" s="3" t="s">
@@ -5582,46 +5538,48 @@
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4">
-        <v>-211</v>
+        <v>-1831</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="P88" s="4">
-        <v>4730</v>
+        <v>4069</v>
       </c>
       <c r="Q88" s="5">
-        <v>0</v>
+        <v>3072.2</v>
       </c>
       <c r="R88" s="6">
-        <v>0</v>
+        <v>4016.2</v>
       </c>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D89" s="2">
-        <v>5900</v>
+        <v>7884</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J89" s="2"/>
       <c r="L89" s="3" t="s">
@@ -5629,48 +5587,48 @@
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4">
-        <v>-1820</v>
+        <v>-186</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="P89" s="4">
-        <v>4080</v>
+        <v>7698</v>
       </c>
       <c r="Q89" s="5">
-        <v>3072.2</v>
+        <v>0</v>
       </c>
       <c r="R89" s="6">
-        <v>4016.2</v>
+        <v>1261.44</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2">
-        <v>7884</v>
+        <v>11600</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J90" s="2"/>
       <c r="L90" s="3" t="s">
@@ -5678,187 +5636,183 @@
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4">
-        <v>-167</v>
+        <v>-113</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P90" s="4">
-        <v>7717</v>
+        <v>11487</v>
       </c>
       <c r="Q90" s="5">
         <v>0</v>
       </c>
       <c r="R90" s="6">
-        <v>0</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D91" s="2">
-        <v>11600</v>
+        <v>9254</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J91" s="2"/>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4">
-        <v>-113</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P91" s="4">
-        <v>11487</v>
-      </c>
       <c r="Q91" s="5">
-        <v>0</v>
+        <v>5883.59</v>
       </c>
       <c r="R91" s="6">
-        <v>0</v>
+        <v>7364.23</v>
       </c>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D92" s="2">
-        <v>25277</v>
+        <v>9700</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J92" s="2"/>
       <c r="L92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M92" s="4">
-        <v>25279</v>
-      </c>
-      <c r="N92" s="7">
-        <v>-1</v>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4">
+        <v>-303</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="P92" s="4">
-        <v>25278</v>
+        <v>9397</v>
       </c>
       <c r="Q92" s="5">
-        <v>16007.68</v>
+        <v>0</v>
       </c>
       <c r="R92" s="6">
-        <v>20052.32</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" s="2">
-        <v>9254</v>
+        <v>13199</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J93" s="2"/>
       <c r="L93" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4">
+        <v>-328</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P93" s="4">
+        <v>12871</v>
+      </c>
       <c r="Q93" s="5">
-        <v>5883.59</v>
+        <v>0</v>
       </c>
       <c r="R93" s="6">
-        <v>7364.23</v>
+        <v>2111.84</v>
       </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="D94" s="2">
-        <v>9700</v>
+        <v>6784</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J94" s="2"/>
       <c r="L94" s="3" t="s">
@@ -5866,46 +5820,48 @@
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4">
-        <v>-303</v>
+        <v>-127</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P94" s="4">
-        <v>9397</v>
+        <v>6657</v>
       </c>
       <c r="Q94" s="5">
         <v>0</v>
       </c>
       <c r="R94" s="6">
-        <v>0</v>
+        <v>1085.44</v>
       </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D95" s="2">
-        <v>13199</v>
+        <v>4199</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J95" s="2"/>
       <c r="L95" s="3" t="s">
@@ -5913,97 +5869,87 @@
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4">
-        <v>-326</v>
+        <v>-949</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P95" s="4">
-        <v>12873</v>
+        <v>3250</v>
       </c>
       <c r="Q95" s="5">
-        <v>0</v>
+        <v>2191.28</v>
       </c>
       <c r="R95" s="6">
-        <v>0</v>
+        <v>2863.12</v>
       </c>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="D96" s="2">
-        <v>6784</v>
+        <v>22145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J96" s="2"/>
       <c r="L96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4">
-        <v>-125</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P96" s="4">
-        <v>6659</v>
-      </c>
       <c r="Q96" s="5">
         <v>0</v>
       </c>
       <c r="R96" s="6">
-        <v>0</v>
+        <v>3543.2</v>
       </c>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="D97" s="2">
-        <v>4199</v>
+        <v>3300</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J97" s="2"/>
       <c r="L97" s="3" t="s">
@@ -6011,87 +5957,97 @@
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4">
-        <v>-947</v>
+        <v>-1026</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="P97" s="4">
-        <v>3252</v>
+        <v>2274</v>
       </c>
       <c r="Q97" s="5">
-        <v>2191.28</v>
+        <v>1564.79</v>
       </c>
       <c r="R97" s="6">
-        <v>2863.12</v>
+        <v>2092.79</v>
       </c>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2">
-        <v>22145</v>
+        <v>5999</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J98" s="2"/>
       <c r="L98" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4">
+        <v>-1099</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="P98" s="4">
+        <v>4900</v>
+      </c>
       <c r="Q98" s="5">
-        <v>0</v>
+        <v>4381.4</v>
       </c>
       <c r="R98" s="6">
-        <v>0</v>
+        <v>5341.24</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2">
-        <v>3300</v>
+        <v>6274</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J99" s="2"/>
       <c r="L99" s="3" t="s">
@@ -6099,48 +6055,48 @@
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4">
-        <v>-1023</v>
+        <v>-82</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="P99" s="4">
-        <v>2277</v>
+        <v>6192</v>
       </c>
       <c r="Q99" s="5">
-        <v>1564.79</v>
+        <v>0</v>
       </c>
       <c r="R99" s="6">
-        <v>2092.79</v>
+        <v>1003.84</v>
       </c>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2">
-        <v>5999</v>
+        <v>3980</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J100" s="2"/>
       <c r="L100" s="3" t="s">
@@ -6148,48 +6104,48 @@
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4">
-        <v>-1079</v>
+        <v>-530</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P100" s="4">
-        <v>4920</v>
+        <v>3450</v>
       </c>
       <c r="Q100" s="5">
-        <v>4381.4</v>
+        <v>0</v>
       </c>
       <c r="R100" s="6">
-        <v>5341.24</v>
+        <v>636.8</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2">
-        <v>6274</v>
+        <v>7228</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J101" s="2"/>
       <c r="L101" s="3" t="s">
@@ -6197,48 +6153,48 @@
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4">
-        <v>-82</v>
+        <v>-998</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="P101" s="4">
-        <v>6192</v>
+        <v>6230</v>
       </c>
       <c r="Q101" s="5">
-        <v>0</v>
+        <v>4965.59</v>
       </c>
       <c r="R101" s="6">
-        <v>0</v>
+        <v>6122.07</v>
       </c>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2">
-        <v>3980</v>
+        <v>3300</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J102" s="2"/>
       <c r="L102" s="3" t="s">
@@ -6246,48 +6202,48 @@
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4">
-        <v>-630</v>
+        <v>-767</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="P102" s="4">
-        <v>3350</v>
+        <v>2533</v>
       </c>
       <c r="Q102" s="5">
-        <v>0</v>
+        <v>1669.1</v>
       </c>
       <c r="R102" s="6">
-        <v>0</v>
+        <v>2197.1</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D103" s="2">
-        <v>7228</v>
+        <v>2700</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J103" s="2"/>
       <c r="L103" s="3" t="s">
@@ -6295,48 +6251,46 @@
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4">
-        <v>-988</v>
+        <v>-862</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="P103" s="4">
-        <v>6240</v>
+        <v>1838</v>
       </c>
       <c r="Q103" s="5">
-        <v>4965.59</v>
+        <v>838.08</v>
       </c>
       <c r="R103" s="6">
-        <v>6122.07</v>
+        <v>1270.08</v>
       </c>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" s="2">
-        <v>3300</v>
+        <v>9200</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J104" s="2"/>
       <c r="L104" s="3" t="s">
@@ -6344,48 +6298,46 @@
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4">
-        <v>-771</v>
+        <v>-875</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="P104" s="4">
-        <v>2529</v>
+        <v>8325</v>
       </c>
       <c r="Q104" s="5">
-        <v>1669.1</v>
+        <v>0</v>
       </c>
       <c r="R104" s="6">
-        <v>2197.1</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" s="2">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J105" s="2"/>
       <c r="L105" s="3" t="s">
@@ -6393,46 +6345,46 @@
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4">
-        <v>-862</v>
+        <v>-1390</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P105" s="4">
-        <v>1838</v>
+        <v>2110</v>
       </c>
       <c r="Q105" s="5">
-        <v>838.08</v>
+        <v>1251.83</v>
       </c>
       <c r="R105" s="6">
-        <v>1270.08</v>
+        <v>1811.83</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2">
-        <v>9200</v>
+        <v>2500</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J106" s="2"/>
       <c r="L106" s="3" t="s">
@@ -6440,46 +6392,46 @@
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4">
-        <v>-875</v>
+        <v>-1026</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P106" s="4">
-        <v>8325</v>
+        <v>1474</v>
       </c>
       <c r="Q106" s="5">
-        <v>0</v>
+        <v>1069.27</v>
       </c>
       <c r="R106" s="6">
-        <v>0</v>
+        <v>1469.27</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2">
-        <v>3500</v>
+        <v>3887</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J107" s="2"/>
       <c r="L107" s="3" t="s">
@@ -6487,46 +6439,46 @@
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4">
-        <v>-1386</v>
+        <v>-438</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="P107" s="4">
-        <v>2114</v>
+        <v>3449</v>
       </c>
       <c r="Q107" s="5">
-        <v>1251.83</v>
+        <v>2816.61</v>
       </c>
       <c r="R107" s="6">
-        <v>1811.83</v>
+        <v>3438.53</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2">
-        <v>2500</v>
+        <v>5769</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J108" s="2"/>
       <c r="L108" s="3" t="s">
@@ -6534,46 +6486,48 @@
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4">
-        <v>-1025</v>
+        <v>-292</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="P108" s="4">
-        <v>1475</v>
+        <v>5477</v>
       </c>
       <c r="Q108" s="5">
-        <v>1069.27</v>
+        <v>0</v>
       </c>
       <c r="R108" s="6">
-        <v>1469.27</v>
+        <v>923.04</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D109" s="2">
-        <v>3887</v>
+        <v>3980</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J109" s="2"/>
       <c r="L109" s="3" t="s">
@@ -6581,46 +6535,46 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4">
-        <v>-438</v>
+        <v>-445</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="P109" s="4">
-        <v>3449</v>
+        <v>3535</v>
       </c>
       <c r="Q109" s="5">
-        <v>2816.61</v>
+        <v>0</v>
       </c>
       <c r="R109" s="6">
-        <v>3438.53</v>
+        <v>636.8</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2">
-        <v>5769</v>
+        <v>12050</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J110" s="2"/>
       <c r="L110" s="3" t="s">
@@ -6628,48 +6582,48 @@
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4">
-        <v>-292</v>
+        <v>-3823</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P110" s="4">
-        <v>5477</v>
+        <v>8227</v>
       </c>
       <c r="Q110" s="5">
         <v>0</v>
       </c>
       <c r="R110" s="6">
-        <v>0</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
-        <v>3980</v>
+        <v>7326</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J111" s="2"/>
       <c r="L111" s="3" t="s">
@@ -6677,46 +6631,46 @@
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4">
-        <v>-445</v>
+        <v>-195</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="P111" s="4">
-        <v>3535</v>
+        <v>7131</v>
       </c>
       <c r="Q111" s="5">
         <v>0</v>
       </c>
       <c r="R111" s="6">
-        <v>0</v>
+        <v>1172.16</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2">
-        <v>12050</v>
+        <v>9242</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J112" s="2"/>
       <c r="L112" s="3" t="s">
@@ -6724,95 +6678,83 @@
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4">
-        <v>-3750</v>
+        <v>-283</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P112" s="4">
-        <v>8300</v>
+        <v>8959</v>
       </c>
       <c r="Q112" s="5">
         <v>0</v>
       </c>
       <c r="R112" s="6">
-        <v>0</v>
+        <v>1478.72</v>
       </c>
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" s="2">
-        <v>7326</v>
+        <v>10729</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J113" s="2"/>
       <c r="L113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4">
-        <v>-190</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P113" s="4">
-        <v>7136</v>
-      </c>
       <c r="Q113" s="5">
-        <v>0</v>
+        <v>4908.21</v>
       </c>
       <c r="R113" s="6">
-        <v>0</v>
+        <v>6624.85</v>
       </c>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2">
-        <v>9242</v>
+        <v>4260</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J114" s="2"/>
       <c r="L114" s="3" t="s">
@@ -6820,364 +6762,161 @@
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4">
-        <v>-283</v>
+        <v>-1961</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="P114" s="4">
-        <v>8959</v>
+        <v>2299</v>
       </c>
       <c r="Q114" s="5">
-        <v>0</v>
+        <v>2845.22</v>
       </c>
       <c r="R114" s="6">
-        <v>0</v>
+        <v>3526.82</v>
       </c>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2">
-        <v>10729</v>
+        <v>7000</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J115" s="2"/>
       <c r="L115" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4">
+        <v>-501</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P115" s="4">
+        <v>6499</v>
+      </c>
       <c r="Q115" s="5">
-        <v>4908.21</v>
+        <v>0</v>
       </c>
       <c r="R115" s="6">
-        <v>6624.85</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2">
-        <v>8000</v>
+        <v>19649</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J116" s="2"/>
       <c r="L116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4">
-        <v>-1005</v>
+      <c r="M116" s="4">
+        <v>19250</v>
+      </c>
+      <c r="N116" s="8">
+        <v>400</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="P116" s="4">
-        <v>6995</v>
+        <v>19650</v>
       </c>
       <c r="Q116" s="5">
-        <v>4736.08</v>
+        <v>8382.030000000001</v>
       </c>
       <c r="R116" s="6">
-        <v>6016.08</v>
+        <v>11462.03</v>
       </c>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2">
-        <v>21900</v>
+        <v>3796</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J117" s="2"/>
       <c r="L117" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4">
+        <v>-1106</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P117" s="4">
+        <v>2690</v>
+      </c>
       <c r="Q117" s="5">
-        <v>10339.84</v>
+        <v>1669.1</v>
       </c>
       <c r="R117" s="6">
-        <v>13843.84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
-      <c r="A118" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2">
-        <v>4260</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J118" s="2"/>
-      <c r="L118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4">
-        <v>-1961</v>
-      </c>
-      <c r="O118" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P118" s="4">
-        <v>2299</v>
-      </c>
-      <c r="Q118" s="5">
-        <v>2845.22</v>
-      </c>
-      <c r="R118" s="6">
-        <v>3526.82</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
-      <c r="A119" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2">
-        <v>8300</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J119" s="2"/>
-      <c r="L119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4">
-        <v>-536</v>
-      </c>
-      <c r="O119" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P119" s="4">
-        <v>7764</v>
-      </c>
-      <c r="Q119" s="5">
-        <v>0</v>
-      </c>
-      <c r="R119" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18">
-      <c r="A120" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2">
-        <v>7000</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J120" s="2"/>
-      <c r="L120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4">
-        <v>-501</v>
-      </c>
-      <c r="O120" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P120" s="4">
-        <v>6499</v>
-      </c>
-      <c r="Q120" s="5">
-        <v>0</v>
-      </c>
-      <c r="R120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
-      <c r="A121" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2">
-        <v>19250</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J121" s="2"/>
-      <c r="L121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q121" s="5">
-        <v>8382.030000000001</v>
-      </c>
-      <c r="R121" s="6">
-        <v>11462.03</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18">
-      <c r="A122" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2">
-        <v>3796</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J122" s="2"/>
-      <c r="L122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4">
-        <v>-1106</v>
-      </c>
-      <c r="O122" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P122" s="4">
-        <v>2690</v>
-      </c>
-      <c r="Q122" s="5">
-        <v>1669.1</v>
-      </c>
-      <c r="R122" s="6">
         <v>2276.46</v>
       </c>
     </row>
@@ -7299,11 +7038,6 @@
     <hyperlink ref="L115" r:id="rId114"/>
     <hyperlink ref="L116" r:id="rId115"/>
     <hyperlink ref="L117" r:id="rId116"/>
-    <hyperlink ref="L118" r:id="rId117"/>
-    <hyperlink ref="L119" r:id="rId118"/>
-    <hyperlink ref="L120" r:id="rId119"/>
-    <hyperlink ref="L121" r:id="rId120"/>
-    <hyperlink ref="L122" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7322,83 +7056,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>319</v>
+      <c r="A1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>320</v>
+      <c r="B2" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>321</v>
+      <c r="B3" s="11" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>322</v>
+      <c r="B4" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>323</v>
+      <c r="B5" s="11" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>324</v>
+      <c r="B6" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>325</v>
+      <c r="B7" s="11" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>325</v>
+      <c r="B8" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>325</v>
+      <c r="B9" s="11" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>325</v>
+      <c r="B10" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
